--- a/Primer Parcial/Talleres/G5_Matriz_IREB_V1.0.xlsx
+++ b/Primer Parcial/Talleres/G5_Matriz_IREB_V1.0.xlsx
@@ -1,149 +1,318 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\ESPE\6to 7mo\Analisis y diseño\27837_G5_ADS\Primer Parcial\Talleres\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC78937A-FB9A-4CA4-87F5-538DEE67DE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Matriz Ckeck LIst" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="MODELO LISTA DE COMPROBACION - " sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="MODELO LISTA DE COMPROBACION" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="MODELO DE LISTA DE COMPROBACION" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="RECOMENDACIONES - CU8" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="RECOMENDACIONES - CU7" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="RECOMENDACIONES - CU2" sheetId="7" r:id="rId10"/>
+    <sheet name="Matriz Ckeck LIst" sheetId="1" r:id="rId1"/>
+    <sheet name="MODELO DE LISTA DE COMPROBACION" sheetId="2" r:id="rId2"/>
+    <sheet name="MODELO LISTA DE COMPROBACION" sheetId="3" r:id="rId3"/>
+    <sheet name="MODELO LISTA DE COMPROBACION - " sheetId="4" r:id="rId4"/>
+    <sheet name="RECOMENDACIONES - CU4" sheetId="5" r:id="rId5"/>
+    <sheet name="RECOMENDACIONES - CU7" sheetId="6" r:id="rId6"/>
+    <sheet name="RECOMENDACIONES - CU8" sheetId="7" r:id="rId7"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="E7">
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <t xml:space="preserve">jeny ruiz:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>jeny ruiz:
 Control del nivel de acuedo entre las partes Cliente y Desarrollador</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F7">
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
-        <t xml:space="preserve">jeny ruiz:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>jeny ruiz:
 La información contenida en memoria se utiliza para actualizar los campos de la base de datos.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="G7">
+    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
-        <t xml:space="preserve">jeny ruiz:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>jeny ruiz:
 Control del nivel de acuedo entre las partes Cliente y Desarrollador</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="I7">
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
-        <t xml:space="preserve">jeny ruiz:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>jeny ruiz:
 Se guarda en un archivo Excel los registros que dieron un problema en la actualización.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="J7">
+    <comment ref="J7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
-        <t xml:space="preserve">jeny ruiz:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>jeny ruiz:
 Control del nivel de acuedo entre las partes Cliente y Desarrollador</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="K7">
+    <comment ref="K7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
-        <t xml:space="preserve">jeny ruiz:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>jeny ruiz:
 jeny ruiz:
 Posterior a la actualización, se guardaran automáticamente el nombre de usuario, fecha, hora, registro antiguo, registro nuevo.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C9">
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
-        <t xml:space="preserve">jeny ruiz:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">jeny ruiz:
 Todos los interesados reconocen que el  requisito es correcto y relevante
 </t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F9">
+    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
-        <t xml:space="preserve">jeny ruiz:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>jeny ruiz:
 Es importante ingresar el archivo plano en formato excel para el cliente y el desarrollador</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="I9">
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
-        <t xml:space="preserve">jeny ruiz:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>jeny ruiz:
 Es importante ingresar el archivo plano en formato excel para el cliente y el desarrollador</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="K9">
+    <comment ref="K9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
-        <t xml:space="preserve">jeny ruiz:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>jeny ruiz:
 Es importante ingresar el archivo plano en formato excel para el cliente y el desarrollador</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C10">
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
-        <t xml:space="preserve">jeny ruiz:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>jeny ruiz:
 Ponderado por importancia o prioridad</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C11">
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
-        <t xml:space="preserve">jeny ruiz:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>jeny ruiz:
 Todos los lectores comprenden de la misma manera, sólo una interpretación</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C12">
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
-        <t xml:space="preserve">jeny ruiz:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>jeny ruiz:
 Toda nueva información  ha sido incorporada</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C13">
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
-        <t xml:space="preserve">jeny ruiz:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">jeny ruiz:
 Refleja las espectativas  del implicado
 </t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C14">
+    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
-        <t xml:space="preserve">jeny ruiz:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">jeny ruiz:
 Sin contradicciones
 </t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C15">
+    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
-        <t xml:space="preserve">jeny ruiz:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>jeny ruiz:
 Su cumplimiento o no cumplimiento puede der probado con un esfuerzo razonable</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C16">
+    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
-        <t xml:space="preserve">jeny ruiz:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>jeny ruiz:
 Puede ser implementado  y desarrollado en las condiciones actuales(tiempo, Presupuest,, orgtanizaciòn, ect)</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C17">
+    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
-        <t xml:space="preserve">jeny ruiz:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>jeny ruiz:
 El origen del requisito y sus relaciones con otros requisitos  están claros.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C18">
+    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
-        <t xml:space="preserve">jeny ruiz:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>jeny ruiz:
 Trata todos los asuntos relevantes</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C19">
+    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
-        <t xml:space="preserve">jeny ruiz:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>jeny ruiz:
 Para todos los interesados dependiendo  de la fase del proyecto podrían estar involucrados  distintos implicados,(Glosario de tèrminos)</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -151,69 +320,141 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="B8">
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
-        <t xml:space="preserve">ESPE:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>ESPE:
 COMPLETITUD DOCUMENTO</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B9">
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
-        <t xml:space="preserve">ESPE:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">ESPE:
 COMPLETITUD REQUISITO INDIVIDUAL
 </t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B10">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
-        <t xml:space="preserve">ESPE:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>ESPE:
 TRAZABILIDAD</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B11">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
-        <t xml:space="preserve">ESPE:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">ESPE:
 trazabilidad
 </t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B12">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
-        <t xml:space="preserve">ESPE:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">ESPE:
 TRAZABILIDAD
 </t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B13">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
-        <t xml:space="preserve">ESPE:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">ESPE:
 CORRECCION
 </t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B14">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
-        <t xml:space="preserve">ESPE:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>ESPE:
 CONSISTENCIA</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B15">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
-        <t xml:space="preserve">ESPE:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">ESPE:
 NECESIDAD
 </t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B16">
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
-        <t xml:space="preserve">ESPE:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">ESPE:
 verificable 
 </t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -221,69 +462,141 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="B8">
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
-        <t xml:space="preserve">ESPE:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>ESPE:
 COMPLETITUD DOCUMENTO</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B9">
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
-        <t xml:space="preserve">ESPE:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">ESPE:
 COMPLETITUD REQUISITO INDIVIDUAL
 </t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B10">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
-        <t xml:space="preserve">ESPE:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>ESPE:
 TRAZABILIDAD</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B11">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
-        <t xml:space="preserve">ESPE:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">ESPE:
 trazabilidad
 </t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B12">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
-        <t xml:space="preserve">ESPE:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">ESPE:
 TRAZABILIDAD
 </t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B13">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
-        <t xml:space="preserve">ESPE:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">ESPE:
 CORRECCION
 </t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B14">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
-        <t xml:space="preserve">ESPE:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>ESPE:
 CONSISTENCIA</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B15">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
-        <t xml:space="preserve">ESPE:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">ESPE:
 NECESIDAD
 </t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B16">
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
-        <t xml:space="preserve">ESPE:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">ESPE:
 verificable 
 </t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -291,69 +604,141 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="B8">
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
-        <t xml:space="preserve">ESPE:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>ESPE:
 COMPLETITUD DOCUMENTO</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B9">
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
-        <t xml:space="preserve">ESPE:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">ESPE:
 COMPLETITUD REQUISITO INDIVIDUAL
 </t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B10">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
-        <t xml:space="preserve">ESPE:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>ESPE:
 TRAZABILIDAD</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B11">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
-        <t xml:space="preserve">ESPE:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">ESPE:
 trazabilidad
 </t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B12">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
-        <t xml:space="preserve">ESPE:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">ESPE:
 TRAZABILIDAD
 </t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B13">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
-        <t xml:space="preserve">ESPE:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">ESPE:
 CORRECCION
 </t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B14">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
-        <t xml:space="preserve">ESPE:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>ESPE:
 CONSISTENCIA</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B15">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
-        <t xml:space="preserve">ESPE:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">ESPE:
 NECESIDAD
 </t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B16">
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
-        <t xml:space="preserve">ESPE:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">ESPE:
 verificable 
 </t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -361,7 +746,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="91">
   <si>
     <t>MATRIZ PARA COMPROBACIÓN REQUERIMIENTOS DE CALIDAD DE PROYECTO ACADEMICO</t>
   </si>
@@ -393,8 +778,7 @@
     <t>CU7. Generar gráficos interactivos</t>
   </si>
   <si>
-    <t xml:space="preserve">CU2. Registrar Ingresos
-</t>
+    <t>CU4. Registrar Egresos</t>
   </si>
   <si>
     <t>Agreed</t>
@@ -408,6 +792,9 @@
 3. Aceptación por videoconferencia</t>
   </si>
   <si>
+    <t>Se cuenta con evidencia mediante videoconferencia, minuta de entrevista y aceptación del cliente respecto a la funcionalidad de registrar egresos.</t>
+  </si>
+  <si>
     <t>Ranked</t>
   </si>
   <si>
@@ -417,16 +804,16 @@
     <t>1. En la descripción de los requisitos funcionales se da una prioridad Alta</t>
   </si>
   <si>
+    <t>El requisito tiene prioridad Alta, ya que el registro de egresos es esencial para el control financiero del sistema.</t>
+  </si>
+  <si>
     <t>Unambiguos</t>
   </si>
   <si>
     <t xml:space="preserve">1.  Redacción de forma que no haya dobles interpretaciones                                                                             2. Todos los involucrados  interpretan de forma clara </t>
   </si>
   <si>
-    <t>NOK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Distinta identificacion entre CU Y RF                                                                             </t>
+    <t>Se especifican claramente los tipos de egresos, los datos requeridos y las condiciones de validación, evitando ambigüedades.</t>
   </si>
   <si>
     <t>Valid and up-to date</t>
@@ -435,10 +822,16 @@
     <t>1. Toda nueva información se ha corregido pertinentemente con respecto a la retroalimentación que nos ha brindado el cliente.</t>
   </si>
   <si>
+    <t>Se realizaron los cambios en base a la retroalimentación reciente del cliente, incluyendo tipos de egreso (Proyectos, Rol de pagos, Presupuesto, Décimos).</t>
+  </si>
+  <si>
     <t>Correct</t>
   </si>
   <si>
     <t>1. Está alineado con los objetivos del sistema.                                                                                                                                                                                                                        2. Refleja lo que realmente necesita el cliente.</t>
+  </si>
+  <si>
+    <t>El requisito está alineado con los objetivos contables del sistema, reflejando una necesidad real del cliente (registro de salidas financieras).</t>
   </si>
   <si>
     <t>Consisten</t>
@@ -452,10 +845,16 @@
 2. Los terminos y acrónimos están definidos claramente al inicio del  documento de requisitos.                                             </t>
   </si>
   <si>
+    <t>Mantiene coherencia con el caso de uso “Registrar Egresos (CU4)” y con la terminología general del sistema contable.</t>
+  </si>
+  <si>
     <t>Verifiable</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Requisito Medible    2. No se han realizado pruebas                                                       </t>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>No se han definido aún casos de prueba que verifiquen la correcta validación de campos o el almacenamiento de datos en la base. Se requiere documentación de pruebas.</t>
   </si>
   <si>
     <t>Realizable</t>
@@ -465,11 +864,17 @@
 2. No se ha implementado</t>
   </si>
   <si>
+    <t>Aún no se dispone de estimaciones de costo, esfuerzo y tiempo para la implementación.</t>
+  </si>
+  <si>
     <t>Traceable</t>
   </si>
   <si>
     <t>1. Se especifica cual es la postcondición y la precondición, así mismo el origen del mismo para coordinar y/o entender la trazabilidad del requisito 
 2. Cuenta con un identificador único</t>
+  </si>
+  <si>
+    <t>Se incluyen precondiciones y postcondiciones que permiten rastrear el flujo del requisito desde la autenticación hasta la generación de reportes.</t>
   </si>
   <si>
     <t>Complete</t>
@@ -479,11 +884,23 @@
 2. Describe completamente la funcionalidad esperada y así como sus excepciones si algo se realiza fuera del flujo normal</t>
   </si>
   <si>
+    <t>1. se describe como se va a reaalizar la funcion 2.especificando precondiciones y postcondiciones</t>
+  </si>
+  <si>
+    <t>Se describen claramente entradas, salidas, excepciones, rendimiento, frecuencia y actores, cubriendo todos los elementos de un requisito completo.</t>
+  </si>
+  <si>
     <t>Understandability</t>
   </si>
   <si>
     <t>1. Se involucra al cliente
 2. Existe glosario de términos</t>
+  </si>
+  <si>
+    <t>1.la descripcion brindada es facil de entender aun para personas sin conociemientos tecnicos</t>
+  </si>
+  <si>
+    <t>La descripción es clara y comprensible para todos los involucrados; el cliente participó activamente en su validación.</t>
   </si>
   <si>
     <t>FECHA:</t>
@@ -496,9 +913,6 @@
   </si>
   <si>
     <t>REQUERIMIENTOS EVALUADOS :</t>
-  </si>
-  <si>
-    <t>CU8. Generar reportes de ingreso</t>
   </si>
   <si>
     <t>CONTENIDO</t>
@@ -519,13 +933,10 @@
     <t>Todos los requerimientos relevantes se han documentado?</t>
   </si>
   <si>
-    <t>x</t>
+    <t>X</t>
   </si>
   <si>
     <t>Se han implementado las funciones requeridas?</t>
-  </si>
-  <si>
-    <t>X</t>
   </si>
   <si>
     <t xml:space="preserve"> Existe algún mecanismo que permita seguir el impacto de dicho requerimiento a lo largo del resto de las actividades del ciclo productivo.?</t>
@@ -591,7 +1002,13 @@
     <t xml:space="preserve">CONTENIDO </t>
   </si>
   <si>
-    <t>CU2. Registrar Ingresos</t>
+    <t>x</t>
+  </si>
+  <si>
+    <t>CU8. Generar reportes de ingreso</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>PREGUNTA</t>
@@ -614,119 +1031,135 @@
     <t>Se recomienda realizar una estimacion de costos añadiendo al final el costo del feedback que nos hizo el cliente tomando el timepo, presupuesto y la organizacion.</t>
   </si>
   <si>
-    <t>¿Se ha incorporado los cambios sugeridos por el tutor o el cliente?</t>
-  </si>
-  <si>
-    <t>¿Se mantiene la coherencia con otros requisitos del sistema y utiliza términos o definiciones de forma uniforme a lo largo del documento?</t>
-  </si>
-  <si>
-    <t>¿Todos los requerimientos  han sido acordados con todos los interesados?</t>
-  </si>
-  <si>
-    <t>¿Se han definido casos de prueba que permitan verificar, de manera objetiva y medible, el cumplimiento del requisito?</t>
+    <t xml:space="preserve">1. Requisito No Medible    2. No se han realizado pruebas                                                       </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="21">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color theme="0"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -734,7 +1167,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -774,27 +1207,39 @@
     </fill>
   </fills>
   <borders count="17">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -804,6 +1249,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -815,22 +1261,30 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -845,6 +1299,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -853,25 +1308,33 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -884,6 +1347,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -894,6 +1358,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -906,6 +1371,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -918,6 +1384,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -928,223 +1395,201 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="64">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="7" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="15" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="6" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="6" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="6" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="9" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="16" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="7" fillId="7" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="51">
     <dxf>
-      <font/>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
       <font>
@@ -1156,7 +1601,6 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
       <font>
@@ -1168,7 +1612,25 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-      <border/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1180,7 +1642,69 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
-      <border/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1189,138 +1713,400 @@
       <fill>
         <patternFill patternType="none"/>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
       <fill>
         <patternFill patternType="none"/>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFDE9D9"/>
+          <bgColor rgb="FFFDE9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAF1DD"/>
+          <bgColor rgb="FFEAF1DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD8D8D8"/>
+          <bgColor rgb="FFD8D8D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="0"/>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFDE9D9"/>
+          <bgColor rgb="FFFDE9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAF1DD"/>
+          <bgColor rgb="FFEAF1DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFD8D8D8"/>
           <bgColor rgb="FFD8D8D8"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFB8CCE4"/>
           <bgColor rgb="FFB8CCE4"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFDE9D9"/>
+          <bgColor rgb="FFFDE9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAF1DD"/>
+          <bgColor rgb="FFEAF1DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="6"/>
           <bgColor theme="6"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEAF1DD"/>
-          <bgColor rgb="FFEAF1DD"/>
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="9"/>
-          <bgColor theme="9"/>
+          <fgColor rgb="FFD8D8D8"/>
+          <bgColor rgb="FFD8D8D8"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFDE9D9"/>
-          <bgColor rgb="FFFDE9D9"/>
+          <fgColor theme="0"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="9">
-    <tableStyle count="3" pivot="0" name="MODELO LISTA DE COMPROBACION - -style">
-      <tableStyleElement dxfId="6" type="headerRow"/>
-      <tableStyleElement dxfId="7" type="firstRowStripe"/>
-      <tableStyleElement dxfId="8" type="secondRowStripe"/>
+    <tableStyle name="MODELO DE LISTA DE COMPROBACION-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="50"/>
+      <tableStyleElement type="firstRowStripe" dxfId="49"/>
+      <tableStyleElement type="secondRowStripe" dxfId="48"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="MODELO LISTA DE COMPROBACION - -style 2">
-      <tableStyleElement dxfId="9" type="headerRow"/>
-      <tableStyleElement dxfId="10" type="firstRowStripe"/>
-      <tableStyleElement dxfId="8" type="secondRowStripe"/>
+    <tableStyle name="MODELO DE LISTA DE COMPROBACION-style 2" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+      <tableStyleElement type="headerRow" dxfId="47"/>
+      <tableStyleElement type="firstRowStripe" dxfId="46"/>
+      <tableStyleElement type="secondRowStripe" dxfId="45"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="MODELO LISTA DE COMPROBACION - -style 3">
-      <tableStyleElement dxfId="11" type="headerRow"/>
-      <tableStyleElement dxfId="12" type="firstRowStripe"/>
-      <tableStyleElement dxfId="8" type="secondRowStripe"/>
+    <tableStyle name="MODELO DE LISTA DE COMPROBACION-style 3" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
+      <tableStyleElement type="headerRow" dxfId="44"/>
+      <tableStyleElement type="firstRowStripe" dxfId="43"/>
+      <tableStyleElement type="secondRowStripe" dxfId="42"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="MODELO LISTA DE COMPROBACION-style">
-      <tableStyleElement dxfId="6" type="headerRow"/>
-      <tableStyleElement dxfId="7" type="firstRowStripe"/>
-      <tableStyleElement dxfId="8" type="secondRowStripe"/>
+    <tableStyle name="MODELO LISTA DE COMPROBACION-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
+      <tableStyleElement type="headerRow" dxfId="41"/>
+      <tableStyleElement type="firstRowStripe" dxfId="40"/>
+      <tableStyleElement type="secondRowStripe" dxfId="39"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="MODELO LISTA DE COMPROBACION-style 2">
-      <tableStyleElement dxfId="9" type="headerRow"/>
-      <tableStyleElement dxfId="10" type="firstRowStripe"/>
-      <tableStyleElement dxfId="8" type="secondRowStripe"/>
+    <tableStyle name="MODELO LISTA DE COMPROBACION-style 2" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
+      <tableStyleElement type="headerRow" dxfId="38"/>
+      <tableStyleElement type="firstRowStripe" dxfId="37"/>
+      <tableStyleElement type="secondRowStripe" dxfId="36"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="MODELO LISTA DE COMPROBACION-style 3">
-      <tableStyleElement dxfId="11" type="headerRow"/>
-      <tableStyleElement dxfId="12" type="firstRowStripe"/>
-      <tableStyleElement dxfId="8" type="secondRowStripe"/>
+    <tableStyle name="MODELO LISTA DE COMPROBACION-style 3" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF05000000}">
+      <tableStyleElement type="headerRow" dxfId="35"/>
+      <tableStyleElement type="firstRowStripe" dxfId="34"/>
+      <tableStyleElement type="secondRowStripe" dxfId="33"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="MODELO DE LISTA DE COMPROBACION-style">
-      <tableStyleElement dxfId="6" type="headerRow"/>
-      <tableStyleElement dxfId="7" type="firstRowStripe"/>
-      <tableStyleElement dxfId="8" type="secondRowStripe"/>
+    <tableStyle name="MODELO LISTA DE COMPROBACION - -style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF06000000}">
+      <tableStyleElement type="headerRow" dxfId="32"/>
+      <tableStyleElement type="firstRowStripe" dxfId="31"/>
+      <tableStyleElement type="secondRowStripe" dxfId="30"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="MODELO DE LISTA DE COMPROBACION-style 2">
-      <tableStyleElement dxfId="9" type="headerRow"/>
-      <tableStyleElement dxfId="10" type="firstRowStripe"/>
-      <tableStyleElement dxfId="8" type="secondRowStripe"/>
+    <tableStyle name="MODELO LISTA DE COMPROBACION - -style 2" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF07000000}">
+      <tableStyleElement type="headerRow" dxfId="29"/>
+      <tableStyleElement type="firstRowStripe" dxfId="28"/>
+      <tableStyleElement type="secondRowStripe" dxfId="27"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="MODELO DE LISTA DE COMPROBACION-style 3">
-      <tableStyleElement dxfId="11" type="headerRow"/>
-      <tableStyleElement dxfId="12" type="firstRowStripe"/>
-      <tableStyleElement dxfId="8" type="secondRowStripe"/>
+    <tableStyle name="MODELO LISTA DE COMPROBACION - -style 3" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF08000000}">
+      <tableStyleElement type="headerRow" dxfId="26"/>
+      <tableStyleElement type="firstRowStripe" dxfId="25"/>
+      <tableStyleElement type="secondRowStripe" dxfId="24"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1337,7 +2123,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" i="0">
+              <a:rPr lang="es-MX" b="1" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -1352,16 +2138,27 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3094930008748907"/>
-          <c:y val="0.06018518518518518"/>
+          <c:x val="0.30949300087489068"/>
+          <c:y val="6.0185185185185182E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
       <c:rotX val="50"/>
-      <c:perspective val="0"/>
+      <c:rotY val="0"/>
+      <c:rAngAx val="1"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:pie3DChart>
@@ -1371,29 +2168,54 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="4F81BD"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D6D3-45B1-A5EA-7FD4A8DC6F8E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="C0504D"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D6D3-45B1-A5EA-7FD4A8DC6F8E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="9BBB59"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-D6D3-45B1-A5EA-7FD4A8DC6F8E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1401,18 +2223,50 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'MODELO LISTA DE COMPROBACION - '!$B$41:$B$43</c:f>
+              <c:f>'MODELO DE LISTA DE COMPROBACION'!$B$41:$B$43</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>CONTENIDO </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DOCUMENTACIÓN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NIVEL DE ACUERDO</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'MODELO LISTA DE COMPROBACION - '!$C$41:$C$43</c:f>
-              <c:numCache/>
+              <c:f>'MODELO DE LISTA DE COMPROBACION'!$C$41:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D6D3-45B1-A5EA-7FD4A8DC6F8E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1421,6 +2275,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
       </c:pie3DChart>
     </c:plotArea>
@@ -1439,16 +2294,28 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1465,7 +2332,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" i="0">
+              <a:rPr lang="es-MX" b="1" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -1480,16 +2347,27 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3094930008748907"/>
-          <c:y val="0.06018518518518518"/>
+          <c:x val="0.30949300087489068"/>
+          <c:y val="6.0185185185185182E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
       <c:rotX val="50"/>
-      <c:perspective val="0"/>
+      <c:rotY val="0"/>
+      <c:rAngAx val="1"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:pie3DChart>
@@ -1499,29 +2377,54 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="4F81BD"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-62F9-4A74-B1A7-2EC64C47A26F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="C0504D"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-62F9-4A74-B1A7-2EC64C47A26F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="9BBB59"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-62F9-4A74-B1A7-2EC64C47A26F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1529,18 +2432,50 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'MODELO LISTA DE COMPROBACION'!$B$41:$B$43</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>CONTENIDO </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DOCUMENTACIÓN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NIVEL DE ACUERDO</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'MODELO LISTA DE COMPROBACION'!$C$41:$C$43</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-62F9-4A74-B1A7-2EC64C47A26F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1549,6 +2484,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
       </c:pie3DChart>
     </c:plotArea>
@@ -1567,16 +2503,28 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1593,7 +2541,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" i="0">
+              <a:rPr lang="es-MX" b="1" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -1608,16 +2556,27 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3094930008748907"/>
-          <c:y val="0.06018518518518518"/>
+          <c:x val="0.30949300087489068"/>
+          <c:y val="6.0185185185185182E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
       <c:rotX val="50"/>
-      <c:perspective val="0"/>
+      <c:rotY val="0"/>
+      <c:rAngAx val="1"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:pie3DChart>
@@ -1627,29 +2586,54 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="4F81BD"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A946-41C0-84BE-BF6EFD8608F8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="C0504D"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A946-41C0-84BE-BF6EFD8608F8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="9BBB59"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-A946-41C0-84BE-BF6EFD8608F8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1657,18 +2641,50 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'MODELO DE LISTA DE COMPROBACION'!$B$41:$B$43</c:f>
+              <c:f>'MODELO LISTA DE COMPROBACION - '!$B$41:$B$43</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>CONTENIDO </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DOCUMENTACIÓN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NIVEL DE ACUERDO</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'MODELO DE LISTA DE COMPROBACION'!$C$41:$C$43</c:f>
-              <c:numCache/>
+              <c:f>'MODELO LISTA DE COMPROBACION - '!$C$41:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-A946-41C0-84BE-BF6EFD8608F8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1677,6 +2693,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
       </c:pie3DChart>
     </c:plotArea>
@@ -1695,20 +2712,24 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -1717,9 +2738,15 @@
       <xdr:rowOff>485775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4286250" cy="2143125"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1728,7 +2755,43 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4286250" cy="2143125"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1738,7 +2801,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -1747,9 +2810,15 @@
       <xdr:rowOff>485775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4286250" cy="2143125"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1758,7 +2827,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1767,158 +2836,116 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>485775</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4286250" cy="2143125"/>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A7:D16" displayName="Table_1" name="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A7:D16">
   <tableColumns count="4">
-    <tableColumn name="No." id="1"/>
-    <tableColumn name="Pregunta" id="2"/>
-    <tableColumn name="SI" id="3"/>
-    <tableColumn name="NO " id="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="No."/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Pregunta"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="SI"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="NO "/>
   </tableColumns>
-  <tableStyleInfo name="MODELO LISTA DE COMPROBACION - -style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="MODELO DE LISTA DE COMPROBACION-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A21:D26" displayName="Table_2" name="Table_2" id="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2" displayName="Table_2" ref="A21:D26">
   <tableColumns count="4">
-    <tableColumn name="No." id="1"/>
-    <tableColumn name="Pregunta" id="2"/>
-    <tableColumn name="SI" id="3"/>
-    <tableColumn name="NO " id="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="No."/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Pregunta"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="SI"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="NO "/>
   </tableColumns>
-  <tableStyleInfo name="MODELO LISTA DE COMPROBACION - -style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="MODELO DE LISTA DE COMPROBACION-style 2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A31:D34" displayName="Table_3" name="Table_3" id="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_3" displayName="Table_3" ref="A31:D34">
   <tableColumns count="4">
-    <tableColumn name="No." id="1"/>
-    <tableColumn name="Pregunta" id="2"/>
-    <tableColumn name="SI" id="3"/>
-    <tableColumn name="NO " id="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="No."/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Pregunta"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="SI"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="NO "/>
   </tableColumns>
-  <tableStyleInfo name="MODELO LISTA DE COMPROBACION - -style 3" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="MODELO DE LISTA DE COMPROBACION-style 3" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A7:D16" displayName="Table_4" name="Table_4" id="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_4" displayName="Table_4" ref="A7:D16">
   <tableColumns count="4">
-    <tableColumn name="No." id="1"/>
-    <tableColumn name="Pregunta" id="2"/>
-    <tableColumn name="SI" id="3"/>
-    <tableColumn name="NO " id="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="No."/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Pregunta"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="SI"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="NO "/>
   </tableColumns>
-  <tableStyleInfo name="MODELO LISTA DE COMPROBACION-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="MODELO LISTA DE COMPROBACION-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A21:D26" displayName="Table_5" name="Table_5" id="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table_5" displayName="Table_5" ref="A21:D26">
   <tableColumns count="4">
-    <tableColumn name="No." id="1"/>
-    <tableColumn name="Pregunta" id="2"/>
-    <tableColumn name="SI" id="3"/>
-    <tableColumn name="NO " id="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="No."/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Pregunta"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="SI"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="NO "/>
   </tableColumns>
-  <tableStyleInfo name="MODELO LISTA DE COMPROBACION-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="MODELO LISTA DE COMPROBACION-style 2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A31:D34" displayName="Table_6" name="Table_6" id="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_6" displayName="Table_6" ref="A31:D34">
   <tableColumns count="4">
-    <tableColumn name="No." id="1"/>
-    <tableColumn name="Pregunta" id="2"/>
-    <tableColumn name="SI" id="3"/>
-    <tableColumn name="NO " id="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="No."/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Pregunta"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="SI"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="NO "/>
   </tableColumns>
-  <tableStyleInfo name="MODELO LISTA DE COMPROBACION-style 3" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="MODELO LISTA DE COMPROBACION-style 3" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A7:D16" displayName="Table_7" name="Table_7" id="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table_7" displayName="Table_7" ref="A7:D16">
   <tableColumns count="4">
-    <tableColumn name="No." id="1"/>
-    <tableColumn name="Pregunta" id="2"/>
-    <tableColumn name="SI" id="3"/>
-    <tableColumn name="NO " id="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="No."/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Pregunta"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="SI"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="NO "/>
   </tableColumns>
-  <tableStyleInfo name="MODELO DE LISTA DE COMPROBACION-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="MODELO LISTA DE COMPROBACION - -style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A21:D26" displayName="Table_8" name="Table_8" id="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table_8" displayName="Table_8" ref="A21:D26">
   <tableColumns count="4">
-    <tableColumn name="No." id="1"/>
-    <tableColumn name="Pregunta" id="2"/>
-    <tableColumn name="SI" id="3"/>
-    <tableColumn name="NO " id="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="No."/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Pregunta"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="SI"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="NO "/>
   </tableColumns>
-  <tableStyleInfo name="MODELO DE LISTA DE COMPROBACION-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="MODELO LISTA DE COMPROBACION - -style 2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A31:D34" displayName="Table_9" name="Table_9" id="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table_9" displayName="Table_9" ref="A31:D34">
   <tableColumns count="4">
-    <tableColumn name="No." id="1"/>
-    <tableColumn name="Pregunta" id="2"/>
-    <tableColumn name="SI" id="3"/>
-    <tableColumn name="NO " id="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="No."/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Pregunta"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="SI"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="NO "/>
   </tableColumns>
-  <tableStyleInfo name="MODELO DE LISTA DE COMPROBACION-style 3" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="MODELO LISTA DE COMPROBACION - -style 3" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2108,999 +3135,1041 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:K1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="4.57"/>
-    <col customWidth="1" min="2" max="2" width="4.43"/>
-    <col customWidth="1" min="3" max="3" width="3.71"/>
-    <col customWidth="1" min="4" max="4" width="34.86"/>
-    <col customWidth="1" min="5" max="5" width="9.71"/>
-    <col customWidth="1" min="6" max="6" width="42.71"/>
-    <col customWidth="1" min="7" max="7" width="10.14"/>
-    <col customWidth="1" hidden="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="42.71"/>
-    <col customWidth="1" min="10" max="10" width="9.86"/>
-    <col customWidth="1" min="11" max="11" width="39.57"/>
+    <col min="1" max="1" width="4.54296875" customWidth="1"/>
+    <col min="2" max="2" width="4.453125" customWidth="1"/>
+    <col min="3" max="3" width="3.7265625" customWidth="1"/>
+    <col min="4" max="4" width="34.81640625" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="6" max="6" width="42.7265625" customWidth="1"/>
+    <col min="7" max="7" width="10.08984375" customWidth="1"/>
+    <col min="8" max="8" width="4.7265625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="42.7265625" customWidth="1"/>
+    <col min="10" max="10" width="9.81640625" customWidth="1"/>
+    <col min="11" max="11" width="39.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="2:11" ht="14.25" customHeight="1">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="2:11" ht="14.25" customHeight="1">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" ht="30.0" customHeight="1">
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="2:11" ht="30" customHeight="1">
+      <c r="C3" s="41" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" ht="30.0" customHeight="1"/>
-    <row r="5" ht="30.0" customHeight="1">
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+    </row>
+    <row r="4" spans="2:11" ht="30" customHeight="1">
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+    </row>
+    <row r="5" spans="2:11" ht="30" customHeight="1">
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="43" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" ht="55.5" customHeight="1">
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+    </row>
+    <row r="6" spans="2:11" ht="55.5" customHeight="1">
       <c r="C6" s="1"/>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" ht="45.0" customHeight="1">
-      <c r="B7" s="8" t="s">
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="46"/>
+    </row>
+    <row r="7" spans="2:11" ht="45" customHeight="1">
+      <c r="B7" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11" t="s">
+      <c r="D7" s="48"/>
+      <c r="E7" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="13">
-        <v>100.0</v>
-      </c>
-      <c r="I7" s="12" t="s">
+      <c r="H7" s="4">
+        <v>100</v>
+      </c>
+      <c r="I7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="40" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" ht="60.0" customHeight="1">
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-    </row>
-    <row r="9" ht="57.0" customHeight="1">
-      <c r="B9" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="C9" s="18" t="s">
+    <row r="8" spans="2:11" ht="60" customHeight="1">
+      <c r="B8" s="39"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+    </row>
+    <row r="9" spans="2:11" ht="62">
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="19" t="s">
+      <c r="D9" s="46"/>
+      <c r="E9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="I9" s="20" t="s">
+      <c r="H9" s="8">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" ht="29.25" customHeight="1">
-      <c r="B10" s="17">
-        <v>2.0</v>
-      </c>
-      <c r="C10" s="18" t="s">
+      <c r="K9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="19" t="s">
+    </row>
+    <row r="10" spans="2:11" ht="29.25" customHeight="1">
+      <c r="B10" s="5">
+        <v>2</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="46"/>
+      <c r="E10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="19" t="s">
+      <c r="F10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="19" t="s">
+      <c r="I10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="19" t="s">
+      <c r="K10" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="62">
+      <c r="B11" s="5">
+        <v>3</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="46"/>
+      <c r="E11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="19" t="s">
+      <c r="F11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="22" t="s">
+      <c r="I11" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="C12" s="18" t="s">
+      <c r="J11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="19" t="s">
+    </row>
+    <row r="12" spans="2:11" ht="62">
+      <c r="B12" s="5">
+        <v>4</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="46"/>
+      <c r="E12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="25" t="s">
+      <c r="F12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="19" t="s">
+      <c r="I12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="17">
-        <v>5.0</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="19" t="s">
+      <c r="K12" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="62">
+      <c r="B13" s="5">
+        <v>5</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="46"/>
+      <c r="E13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="19" t="s">
+      <c r="F13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="19" t="s">
+      <c r="I13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="17">
-        <v>6.0</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="19" t="s">
+      <c r="K13" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="93">
+      <c r="B14" s="5">
+        <v>6</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="46"/>
+      <c r="E14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="25" t="s">
+      <c r="F14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="26"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="17">
-        <v>7.0</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="26"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="17">
-        <v>8.0</v>
-      </c>
-      <c r="C16" s="18" t="s">
+      <c r="I14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="24" t="s">
+      <c r="J14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="26"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="17">
-        <v>9.0</v>
-      </c>
-      <c r="C17" s="18" t="s">
+    </row>
+    <row r="15" spans="2:11" ht="77.5">
+      <c r="B15" s="5">
+        <v>7</v>
+      </c>
+      <c r="C15" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="19" t="s">
+      <c r="D15" s="46"/>
+      <c r="E15" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="46.5">
+      <c r="B16" s="5">
+        <v>8</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="46"/>
+      <c r="E16" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="77.5">
+      <c r="B17" s="5">
+        <v>9</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="46"/>
+      <c r="E17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="19" t="s">
+      <c r="F17" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="19" t="s">
+      <c r="I17" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="29"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="17">
-        <v>10.0</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="19" t="s">
+      <c r="K17" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="124">
+      <c r="B18" s="5">
+        <v>10</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="46"/>
+      <c r="E18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="19" t="s">
+      <c r="F18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="26"/>
-      <c r="J18" s="19" t="s">
+      <c r="I18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K18" s="26"/>
-    </row>
-    <row r="19">
-      <c r="B19" s="17">
-        <v>11.0</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="19" t="s">
+      <c r="K18" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="46.5">
+      <c r="B19" s="5">
         <v>11</v>
       </c>
-      <c r="F19" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="19" t="s">
+      <c r="C19" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="46"/>
+      <c r="E19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="26"/>
-      <c r="J19" s="19" t="s">
+      <c r="F19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K19" s="26"/>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
+      <c r="I19" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="14.25" customHeight="1">
       <c r="C20" s="1"/>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="2:11" ht="14.25" customHeight="1">
       <c r="C21" s="1"/>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" spans="2:11" ht="14.25" customHeight="1">
       <c r="C22" s="1"/>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
+    <row r="23" spans="2:11" ht="14.25" customHeight="1">
       <c r="C23" s="1"/>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
+    <row r="24" spans="2:11" ht="14.25" customHeight="1">
       <c r="C24" s="1"/>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
+    <row r="25" spans="2:11" ht="14.25" customHeight="1">
       <c r="C25" s="1"/>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
+    <row r="26" spans="2:11" ht="14.25" customHeight="1">
       <c r="C26" s="1"/>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
+    <row r="27" spans="2:11" ht="14.25" customHeight="1">
       <c r="C27" s="1"/>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
+    <row r="28" spans="2:11" ht="14.25" customHeight="1">
       <c r="C28" s="1"/>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
+    <row r="29" spans="2:11" ht="14.25" customHeight="1">
       <c r="C29" s="1"/>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
+    <row r="30" spans="2:11" ht="14.25" customHeight="1">
       <c r="C30" s="1"/>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
+    <row r="31" spans="2:11" ht="14.25" customHeight="1">
       <c r="C31" s="1"/>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
+    <row r="32" spans="2:11" ht="14.25" customHeight="1">
       <c r="C32" s="1"/>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
+    <row r="33" spans="3:3" ht="14.25" customHeight="1">
       <c r="C33" s="1"/>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
+    <row r="34" spans="3:3" ht="14.25" customHeight="1">
       <c r="C34" s="1"/>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
+    <row r="35" spans="3:3" ht="14.25" customHeight="1">
       <c r="C35" s="1"/>
     </row>
-    <row r="36" ht="14.25" customHeight="1">
+    <row r="36" spans="3:3" ht="14.25" customHeight="1">
       <c r="C36" s="1"/>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
+    <row r="37" spans="3:3" ht="14.25" customHeight="1">
       <c r="C37" s="1"/>
     </row>
-    <row r="38" ht="14.25" customHeight="1">
+    <row r="38" spans="3:3" ht="14.25" customHeight="1">
       <c r="C38" s="1"/>
     </row>
-    <row r="39" ht="14.25" customHeight="1">
+    <row r="39" spans="3:3" ht="14.25" customHeight="1">
       <c r="C39" s="1"/>
     </row>
-    <row r="40" ht="14.25" customHeight="1">
+    <row r="40" spans="3:3" ht="14.25" customHeight="1">
       <c r="C40" s="1"/>
     </row>
-    <row r="41" ht="14.25" customHeight="1">
+    <row r="41" spans="3:3" ht="14.25" customHeight="1">
       <c r="C41" s="1"/>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
+    <row r="42" spans="3:3" ht="14.25" customHeight="1">
       <c r="C42" s="1"/>
     </row>
-    <row r="43" ht="14.25" customHeight="1">
+    <row r="43" spans="3:3" ht="14.25" customHeight="1">
       <c r="C43" s="1"/>
     </row>
-    <row r="44" ht="14.25" customHeight="1">
+    <row r="44" spans="3:3" ht="14.25" customHeight="1">
       <c r="C44" s="1"/>
     </row>
-    <row r="45" ht="14.25" customHeight="1">
+    <row r="45" spans="3:3" ht="14.25" customHeight="1">
       <c r="C45" s="1"/>
     </row>
-    <row r="46" ht="14.25" customHeight="1">
+    <row r="46" spans="3:3" ht="14.25" customHeight="1">
       <c r="C46" s="1"/>
     </row>
-    <row r="47" ht="14.25" customHeight="1">
+    <row r="47" spans="3:3" ht="14.25" customHeight="1">
       <c r="C47" s="1"/>
     </row>
-    <row r="48" ht="14.25" customHeight="1">
+    <row r="48" spans="3:3" ht="14.25" customHeight="1">
       <c r="C48" s="1"/>
     </row>
-    <row r="49" ht="14.25" customHeight="1">
+    <row r="49" spans="3:3" ht="14.25" customHeight="1">
       <c r="C49" s="1"/>
     </row>
-    <row r="50" ht="14.25" customHeight="1">
+    <row r="50" spans="3:3" ht="14.25" customHeight="1">
       <c r="C50" s="1"/>
     </row>
-    <row r="51" ht="14.25" customHeight="1">
+    <row r="51" spans="3:3" ht="14.25" customHeight="1">
       <c r="C51" s="1"/>
     </row>
-    <row r="52" ht="14.25" customHeight="1">
+    <row r="52" spans="3:3" ht="14.25" customHeight="1">
       <c r="C52" s="1"/>
     </row>
-    <row r="53" ht="14.25" customHeight="1">
+    <row r="53" spans="3:3" ht="14.25" customHeight="1">
       <c r="C53" s="1"/>
     </row>
-    <row r="54" ht="14.25" customHeight="1">
+    <row r="54" spans="3:3" ht="14.25" customHeight="1">
       <c r="C54" s="1"/>
     </row>
-    <row r="55" ht="14.25" customHeight="1">
+    <row r="55" spans="3:3" ht="14.25" customHeight="1">
       <c r="C55" s="1"/>
     </row>
-    <row r="56" ht="14.25" customHeight="1">
+    <row r="56" spans="3:3" ht="14.25" customHeight="1">
       <c r="C56" s="1"/>
     </row>
-    <row r="57" ht="14.25" customHeight="1">
+    <row r="57" spans="3:3" ht="14.25" customHeight="1">
       <c r="C57" s="1"/>
     </row>
-    <row r="58" ht="14.25" customHeight="1">
+    <row r="58" spans="3:3" ht="14.25" customHeight="1">
       <c r="C58" s="1"/>
     </row>
-    <row r="59" ht="14.25" customHeight="1">
+    <row r="59" spans="3:3" ht="14.25" customHeight="1">
       <c r="C59" s="1"/>
     </row>
-    <row r="60" ht="14.25" customHeight="1">
+    <row r="60" spans="3:3" ht="14.25" customHeight="1">
       <c r="C60" s="1"/>
     </row>
-    <row r="61" ht="14.25" customHeight="1">
+    <row r="61" spans="3:3" ht="14.25" customHeight="1">
       <c r="C61" s="1"/>
     </row>
-    <row r="62" ht="14.25" customHeight="1">
+    <row r="62" spans="3:3" ht="14.25" customHeight="1">
       <c r="C62" s="1"/>
     </row>
-    <row r="63" ht="14.25" customHeight="1">
+    <row r="63" spans="3:3" ht="14.25" customHeight="1">
       <c r="C63" s="1"/>
     </row>
-    <row r="64" ht="14.25" customHeight="1">
+    <row r="64" spans="3:3" ht="14.25" customHeight="1">
       <c r="C64" s="1"/>
     </row>
-    <row r="65" ht="14.25" customHeight="1">
+    <row r="65" spans="3:3" ht="14.25" customHeight="1">
       <c r="C65" s="1"/>
     </row>
-    <row r="66" ht="14.25" customHeight="1">
+    <row r="66" spans="3:3" ht="14.25" customHeight="1">
       <c r="C66" s="1"/>
     </row>
-    <row r="67" ht="14.25" customHeight="1">
+    <row r="67" spans="3:3" ht="14.25" customHeight="1">
       <c r="C67" s="1"/>
     </row>
-    <row r="68" ht="14.25" customHeight="1">
+    <row r="68" spans="3:3" ht="14.25" customHeight="1">
       <c r="C68" s="1"/>
     </row>
-    <row r="69" ht="14.25" customHeight="1">
+    <row r="69" spans="3:3" ht="14.25" customHeight="1">
       <c r="C69" s="1"/>
     </row>
-    <row r="70" ht="14.25" customHeight="1">
+    <row r="70" spans="3:3" ht="14.25" customHeight="1">
       <c r="C70" s="1"/>
     </row>
-    <row r="71" ht="14.25" customHeight="1">
+    <row r="71" spans="3:3" ht="14.25" customHeight="1">
       <c r="C71" s="1"/>
     </row>
-    <row r="72" ht="14.25" customHeight="1">
+    <row r="72" spans="3:3" ht="14.25" customHeight="1">
       <c r="C72" s="1"/>
     </row>
-    <row r="73" ht="14.25" customHeight="1">
+    <row r="73" spans="3:3" ht="14.25" customHeight="1">
       <c r="C73" s="1"/>
     </row>
-    <row r="74" ht="14.25" customHeight="1">
+    <row r="74" spans="3:3" ht="14.25" customHeight="1">
       <c r="C74" s="1"/>
     </row>
-    <row r="75" ht="14.25" customHeight="1">
+    <row r="75" spans="3:3" ht="14.25" customHeight="1">
       <c r="C75" s="1"/>
     </row>
-    <row r="76" ht="14.25" customHeight="1">
+    <row r="76" spans="3:3" ht="14.25" customHeight="1">
       <c r="C76" s="1"/>
     </row>
-    <row r="77" ht="14.25" customHeight="1">
+    <row r="77" spans="3:3" ht="14.25" customHeight="1">
       <c r="C77" s="1"/>
     </row>
-    <row r="78" ht="14.25" customHeight="1">
+    <row r="78" spans="3:3" ht="14.25" customHeight="1">
       <c r="C78" s="1"/>
     </row>
-    <row r="79" ht="14.25" customHeight="1">
+    <row r="79" spans="3:3" ht="14.25" customHeight="1">
       <c r="C79" s="1"/>
     </row>
-    <row r="80" ht="14.25" customHeight="1">
+    <row r="80" spans="3:3" ht="14.25" customHeight="1">
       <c r="C80" s="1"/>
     </row>
-    <row r="81" ht="14.25" customHeight="1">
+    <row r="81" spans="3:3" ht="14.25" customHeight="1">
       <c r="C81" s="1"/>
     </row>
-    <row r="82" ht="14.25" customHeight="1">
+    <row r="82" spans="3:3" ht="14.25" customHeight="1">
       <c r="C82" s="1"/>
     </row>
-    <row r="83" ht="14.25" customHeight="1">
+    <row r="83" spans="3:3" ht="14.25" customHeight="1">
       <c r="C83" s="1"/>
     </row>
-    <row r="84" ht="14.25" customHeight="1">
+    <row r="84" spans="3:3" ht="14.25" customHeight="1">
       <c r="C84" s="1"/>
     </row>
-    <row r="85" ht="14.25" customHeight="1">
+    <row r="85" spans="3:3" ht="14.25" customHeight="1">
       <c r="C85" s="1"/>
     </row>
-    <row r="86" ht="14.25" customHeight="1">
+    <row r="86" spans="3:3" ht="14.25" customHeight="1">
       <c r="C86" s="1"/>
     </row>
-    <row r="87" ht="14.25" customHeight="1">
+    <row r="87" spans="3:3" ht="14.25" customHeight="1">
       <c r="C87" s="1"/>
     </row>
-    <row r="88" ht="14.25" customHeight="1">
+    <row r="88" spans="3:3" ht="14.25" customHeight="1">
       <c r="C88" s="1"/>
     </row>
-    <row r="89" ht="14.25" customHeight="1">
+    <row r="89" spans="3:3" ht="14.25" customHeight="1">
       <c r="C89" s="1"/>
     </row>
-    <row r="90" ht="14.25" customHeight="1">
+    <row r="90" spans="3:3" ht="14.25" customHeight="1">
       <c r="C90" s="1"/>
     </row>
-    <row r="91" ht="14.25" customHeight="1">
+    <row r="91" spans="3:3" ht="14.25" customHeight="1">
       <c r="C91" s="1"/>
     </row>
-    <row r="92" ht="14.25" customHeight="1">
+    <row r="92" spans="3:3" ht="14.25" customHeight="1">
       <c r="C92" s="1"/>
     </row>
-    <row r="93" ht="14.25" customHeight="1">
+    <row r="93" spans="3:3" ht="14.25" customHeight="1">
       <c r="C93" s="1"/>
     </row>
-    <row r="94" ht="14.25" customHeight="1">
+    <row r="94" spans="3:3" ht="14.25" customHeight="1">
       <c r="C94" s="1"/>
     </row>
-    <row r="95" ht="14.25" customHeight="1">
+    <row r="95" spans="3:3" ht="14.25" customHeight="1">
       <c r="C95" s="1"/>
     </row>
-    <row r="96" ht="14.25" customHeight="1">
+    <row r="96" spans="3:3" ht="14.25" customHeight="1">
       <c r="C96" s="1"/>
     </row>
-    <row r="97" ht="14.25" customHeight="1">
+    <row r="97" spans="3:3" ht="14.25" customHeight="1">
       <c r="C97" s="1"/>
     </row>
-    <row r="98" ht="14.25" customHeight="1">
+    <row r="98" spans="3:3" ht="14.25" customHeight="1">
       <c r="C98" s="1"/>
     </row>
-    <row r="99" ht="14.25" customHeight="1">
+    <row r="99" spans="3:3" ht="14.25" customHeight="1">
       <c r="C99" s="1"/>
     </row>
-    <row r="100" ht="14.25" customHeight="1">
+    <row r="100" spans="3:3" ht="14.25" customHeight="1">
       <c r="C100" s="1"/>
     </row>
-    <row r="101" ht="14.25" customHeight="1">
+    <row r="101" spans="3:3" ht="14.25" customHeight="1">
       <c r="C101" s="1"/>
     </row>
-    <row r="102" ht="14.25" customHeight="1">
+    <row r="102" spans="3:3" ht="14.25" customHeight="1">
       <c r="C102" s="1"/>
     </row>
-    <row r="103" ht="14.25" customHeight="1">
+    <row r="103" spans="3:3" ht="14.25" customHeight="1">
       <c r="C103" s="1"/>
     </row>
-    <row r="104" ht="14.25" customHeight="1">
+    <row r="104" spans="3:3" ht="14.25" customHeight="1">
       <c r="C104" s="1"/>
     </row>
-    <row r="105" ht="14.25" customHeight="1">
+    <row r="105" spans="3:3" ht="14.25" customHeight="1">
       <c r="C105" s="1"/>
     </row>
-    <row r="106" ht="14.25" customHeight="1">
+    <row r="106" spans="3:3" ht="14.25" customHeight="1">
       <c r="C106" s="1"/>
     </row>
-    <row r="107" ht="14.25" customHeight="1">
+    <row r="107" spans="3:3" ht="14.25" customHeight="1">
       <c r="C107" s="1"/>
     </row>
-    <row r="108" ht="14.25" customHeight="1">
+    <row r="108" spans="3:3" ht="14.25" customHeight="1">
       <c r="C108" s="1"/>
     </row>
-    <row r="109" ht="14.25" customHeight="1">
+    <row r="109" spans="3:3" ht="14.25" customHeight="1">
       <c r="C109" s="1"/>
     </row>
-    <row r="110" ht="14.25" customHeight="1">
+    <row r="110" spans="3:3" ht="14.25" customHeight="1">
       <c r="C110" s="1"/>
     </row>
-    <row r="111" ht="14.25" customHeight="1">
+    <row r="111" spans="3:3" ht="14.25" customHeight="1">
       <c r="C111" s="1"/>
     </row>
-    <row r="112" ht="14.25" customHeight="1">
+    <row r="112" spans="3:3" ht="14.25" customHeight="1">
       <c r="C112" s="1"/>
     </row>
-    <row r="113" ht="14.25" customHeight="1">
+    <row r="113" spans="3:3" ht="14.25" customHeight="1">
       <c r="C113" s="1"/>
     </row>
-    <row r="114" ht="14.25" customHeight="1">
+    <row r="114" spans="3:3" ht="14.25" customHeight="1">
       <c r="C114" s="1"/>
     </row>
-    <row r="115" ht="14.25" customHeight="1">
+    <row r="115" spans="3:3" ht="14.25" customHeight="1">
       <c r="C115" s="1"/>
     </row>
-    <row r="116" ht="14.25" customHeight="1">
+    <row r="116" spans="3:3" ht="14.25" customHeight="1">
       <c r="C116" s="1"/>
     </row>
-    <row r="117" ht="14.25" customHeight="1">
+    <row r="117" spans="3:3" ht="14.25" customHeight="1">
       <c r="C117" s="1"/>
     </row>
-    <row r="118" ht="14.25" customHeight="1">
+    <row r="118" spans="3:3" ht="14.25" customHeight="1">
       <c r="C118" s="1"/>
     </row>
-    <row r="119" ht="14.25" customHeight="1">
+    <row r="119" spans="3:3" ht="14.25" customHeight="1">
       <c r="C119" s="1"/>
     </row>
-    <row r="120" ht="14.25" customHeight="1">
+    <row r="120" spans="3:3" ht="14.25" customHeight="1">
       <c r="C120" s="1"/>
     </row>
-    <row r="121" ht="14.25" customHeight="1">
+    <row r="121" spans="3:3" ht="14.25" customHeight="1">
       <c r="C121" s="1"/>
     </row>
-    <row r="122" ht="14.25" customHeight="1">
+    <row r="122" spans="3:3" ht="14.25" customHeight="1">
       <c r="C122" s="1"/>
     </row>
-    <row r="123" ht="14.25" customHeight="1">
+    <row r="123" spans="3:3" ht="14.25" customHeight="1">
       <c r="C123" s="1"/>
     </row>
-    <row r="124" ht="14.25" customHeight="1">
+    <row r="124" spans="3:3" ht="14.25" customHeight="1">
       <c r="C124" s="1"/>
     </row>
-    <row r="125" ht="14.25" customHeight="1">
+    <row r="125" spans="3:3" ht="14.25" customHeight="1">
       <c r="C125" s="1"/>
     </row>
-    <row r="126" ht="14.25" customHeight="1">
+    <row r="126" spans="3:3" ht="14.25" customHeight="1">
       <c r="C126" s="1"/>
     </row>
-    <row r="127" ht="14.25" customHeight="1">
+    <row r="127" spans="3:3" ht="14.25" customHeight="1">
       <c r="C127" s="1"/>
     </row>
-    <row r="128" ht="14.25" customHeight="1">
+    <row r="128" spans="3:3" ht="14.25" customHeight="1">
       <c r="C128" s="1"/>
     </row>
-    <row r="129" ht="14.25" customHeight="1">
+    <row r="129" spans="3:3" ht="14.25" customHeight="1">
       <c r="C129" s="1"/>
     </row>
-    <row r="130" ht="14.25" customHeight="1">
+    <row r="130" spans="3:3" ht="14.25" customHeight="1">
       <c r="C130" s="1"/>
     </row>
-    <row r="131" ht="14.25" customHeight="1">
+    <row r="131" spans="3:3" ht="14.25" customHeight="1">
       <c r="C131" s="1"/>
     </row>
-    <row r="132" ht="14.25" customHeight="1">
+    <row r="132" spans="3:3" ht="14.25" customHeight="1">
       <c r="C132" s="1"/>
     </row>
-    <row r="133" ht="14.25" customHeight="1">
+    <row r="133" spans="3:3" ht="14.25" customHeight="1">
       <c r="C133" s="1"/>
     </row>
-    <row r="134" ht="14.25" customHeight="1">
+    <row r="134" spans="3:3" ht="14.25" customHeight="1">
       <c r="C134" s="1"/>
     </row>
-    <row r="135" ht="14.25" customHeight="1">
+    <row r="135" spans="3:3" ht="14.25" customHeight="1">
       <c r="C135" s="1"/>
     </row>
-    <row r="136" ht="14.25" customHeight="1">
+    <row r="136" spans="3:3" ht="14.25" customHeight="1">
       <c r="C136" s="1"/>
     </row>
-    <row r="137" ht="14.25" customHeight="1">
+    <row r="137" spans="3:3" ht="14.25" customHeight="1">
       <c r="C137" s="1"/>
     </row>
-    <row r="138" ht="14.25" customHeight="1">
+    <row r="138" spans="3:3" ht="14.25" customHeight="1">
       <c r="C138" s="1"/>
     </row>
-    <row r="139" ht="14.25" customHeight="1">
+    <row r="139" spans="3:3" ht="14.25" customHeight="1">
       <c r="C139" s="1"/>
     </row>
-    <row r="140" ht="14.25" customHeight="1">
+    <row r="140" spans="3:3" ht="14.25" customHeight="1">
       <c r="C140" s="1"/>
     </row>
-    <row r="141" ht="14.25" customHeight="1">
+    <row r="141" spans="3:3" ht="14.25" customHeight="1">
       <c r="C141" s="1"/>
     </row>
-    <row r="142" ht="14.25" customHeight="1">
+    <row r="142" spans="3:3" ht="14.25" customHeight="1">
       <c r="C142" s="1"/>
     </row>
-    <row r="143" ht="14.25" customHeight="1">
+    <row r="143" spans="3:3" ht="14.25" customHeight="1">
       <c r="C143" s="1"/>
     </row>
-    <row r="144" ht="14.25" customHeight="1">
+    <row r="144" spans="3:3" ht="14.25" customHeight="1">
       <c r="C144" s="1"/>
     </row>
-    <row r="145" ht="14.25" customHeight="1">
+    <row r="145" spans="3:3" ht="14.25" customHeight="1">
       <c r="C145" s="1"/>
     </row>
-    <row r="146" ht="14.25" customHeight="1">
+    <row r="146" spans="3:3" ht="14.25" customHeight="1">
       <c r="C146" s="1"/>
     </row>
-    <row r="147" ht="14.25" customHeight="1">
+    <row r="147" spans="3:3" ht="14.25" customHeight="1">
       <c r="C147" s="1"/>
     </row>
-    <row r="148" ht="14.25" customHeight="1">
+    <row r="148" spans="3:3" ht="14.25" customHeight="1">
       <c r="C148" s="1"/>
     </row>
-    <row r="149" ht="14.25" customHeight="1">
+    <row r="149" spans="3:3" ht="14.25" customHeight="1">
       <c r="C149" s="1"/>
     </row>
-    <row r="150" ht="14.25" customHeight="1">
+    <row r="150" spans="3:3" ht="14.25" customHeight="1">
       <c r="C150" s="1"/>
     </row>
-    <row r="151" ht="14.25" customHeight="1">
+    <row r="151" spans="3:3" ht="14.25" customHeight="1">
       <c r="C151" s="1"/>
     </row>
-    <row r="152" ht="14.25" customHeight="1">
+    <row r="152" spans="3:3" ht="14.25" customHeight="1">
       <c r="C152" s="1"/>
     </row>
-    <row r="153" ht="14.25" customHeight="1">
+    <row r="153" spans="3:3" ht="14.25" customHeight="1">
       <c r="C153" s="1"/>
     </row>
-    <row r="154" ht="14.25" customHeight="1">
+    <row r="154" spans="3:3" ht="14.25" customHeight="1">
       <c r="C154" s="1"/>
     </row>
-    <row r="155" ht="14.25" customHeight="1">
+    <row r="155" spans="3:3" ht="14.25" customHeight="1">
       <c r="C155" s="1"/>
     </row>
-    <row r="156" ht="14.25" customHeight="1">
+    <row r="156" spans="3:3" ht="14.25" customHeight="1">
       <c r="C156" s="1"/>
     </row>
-    <row r="157" ht="14.25" customHeight="1">
+    <row r="157" spans="3:3" ht="14.25" customHeight="1">
       <c r="C157" s="1"/>
     </row>
-    <row r="158" ht="14.25" customHeight="1">
+    <row r="158" spans="3:3" ht="14.25" customHeight="1">
       <c r="C158" s="1"/>
     </row>
-    <row r="159" ht="14.25" customHeight="1">
+    <row r="159" spans="3:3" ht="14.25" customHeight="1">
       <c r="C159" s="1"/>
     </row>
-    <row r="160" ht="14.25" customHeight="1">
+    <row r="160" spans="3:3" ht="14.25" customHeight="1">
       <c r="C160" s="1"/>
     </row>
-    <row r="161" ht="14.25" customHeight="1">
+    <row r="161" spans="3:3" ht="14.25" customHeight="1">
       <c r="C161" s="1"/>
     </row>
-    <row r="162" ht="14.25" customHeight="1">
+    <row r="162" spans="3:3" ht="14.25" customHeight="1">
       <c r="C162" s="1"/>
     </row>
-    <row r="163" ht="14.25" customHeight="1">
+    <row r="163" spans="3:3" ht="14.25" customHeight="1">
       <c r="C163" s="1"/>
     </row>
-    <row r="164" ht="14.25" customHeight="1">
+    <row r="164" spans="3:3" ht="14.25" customHeight="1">
       <c r="C164" s="1"/>
     </row>
-    <row r="165" ht="14.25" customHeight="1">
+    <row r="165" spans="3:3" ht="14.25" customHeight="1">
       <c r="C165" s="1"/>
     </row>
-    <row r="166" ht="14.25" customHeight="1">
+    <row r="166" spans="3:3" ht="14.25" customHeight="1">
       <c r="C166" s="1"/>
     </row>
-    <row r="167" ht="14.25" customHeight="1">
+    <row r="167" spans="3:3" ht="14.25" customHeight="1">
       <c r="C167" s="1"/>
     </row>
-    <row r="168" ht="14.25" customHeight="1">
+    <row r="168" spans="3:3" ht="14.25" customHeight="1">
       <c r="C168" s="1"/>
     </row>
-    <row r="169" ht="14.25" customHeight="1">
+    <row r="169" spans="3:3" ht="14.25" customHeight="1">
       <c r="C169" s="1"/>
     </row>
-    <row r="170" ht="14.25" customHeight="1">
+    <row r="170" spans="3:3" ht="14.25" customHeight="1">
       <c r="C170" s="1"/>
     </row>
-    <row r="171" ht="14.25" customHeight="1">
+    <row r="171" spans="3:3" ht="14.25" customHeight="1">
       <c r="C171" s="1"/>
     </row>
-    <row r="172" ht="14.25" customHeight="1">
+    <row r="172" spans="3:3" ht="14.25" customHeight="1">
       <c r="C172" s="1"/>
     </row>
-    <row r="173" ht="14.25" customHeight="1">
+    <row r="173" spans="3:3" ht="14.25" customHeight="1">
       <c r="C173" s="1"/>
     </row>
-    <row r="174" ht="14.25" customHeight="1">
+    <row r="174" spans="3:3" ht="14.25" customHeight="1">
       <c r="C174" s="1"/>
     </row>
-    <row r="175" ht="14.25" customHeight="1">
+    <row r="175" spans="3:3" ht="14.25" customHeight="1">
       <c r="C175" s="1"/>
     </row>
-    <row r="176" ht="14.25" customHeight="1">
+    <row r="176" spans="3:3" ht="14.25" customHeight="1">
       <c r="C176" s="1"/>
     </row>
-    <row r="177" ht="14.25" customHeight="1">
+    <row r="177" spans="3:3" ht="14.25" customHeight="1">
       <c r="C177" s="1"/>
     </row>
-    <row r="178" ht="14.25" customHeight="1">
+    <row r="178" spans="3:3" ht="14.25" customHeight="1">
       <c r="C178" s="1"/>
     </row>
-    <row r="179" ht="14.25" customHeight="1">
+    <row r="179" spans="3:3" ht="14.25" customHeight="1">
       <c r="C179" s="1"/>
     </row>
-    <row r="180" ht="14.25" customHeight="1">
+    <row r="180" spans="3:3" ht="14.25" customHeight="1">
       <c r="C180" s="1"/>
     </row>
-    <row r="181" ht="14.25" customHeight="1">
+    <row r="181" spans="3:3" ht="14.25" customHeight="1">
       <c r="C181" s="1"/>
     </row>
-    <row r="182" ht="14.25" customHeight="1">
+    <row r="182" spans="3:3" ht="14.25" customHeight="1">
       <c r="C182" s="1"/>
     </row>
-    <row r="183" ht="14.25" customHeight="1">
+    <row r="183" spans="3:3" ht="14.25" customHeight="1">
       <c r="C183" s="1"/>
     </row>
-    <row r="184" ht="14.25" customHeight="1">
+    <row r="184" spans="3:3" ht="14.25" customHeight="1">
       <c r="C184" s="1"/>
     </row>
-    <row r="185" ht="14.25" customHeight="1">
+    <row r="185" spans="3:3" ht="14.25" customHeight="1">
       <c r="C185" s="1"/>
     </row>
-    <row r="186" ht="14.25" customHeight="1">
+    <row r="186" spans="3:3" ht="14.25" customHeight="1">
       <c r="C186" s="1"/>
     </row>
-    <row r="187" ht="14.25" customHeight="1">
+    <row r="187" spans="3:3" ht="14.25" customHeight="1">
       <c r="C187" s="1"/>
     </row>
-    <row r="188" ht="14.25" customHeight="1">
+    <row r="188" spans="3:3" ht="14.25" customHeight="1">
       <c r="C188" s="1"/>
     </row>
-    <row r="189" ht="14.25" customHeight="1">
+    <row r="189" spans="3:3" ht="14.25" customHeight="1">
       <c r="C189" s="1"/>
     </row>
-    <row r="190" ht="14.25" customHeight="1">
+    <row r="190" spans="3:3" ht="14.25" customHeight="1">
       <c r="C190" s="1"/>
     </row>
-    <row r="191" ht="14.25" customHeight="1">
+    <row r="191" spans="3:3" ht="14.25" customHeight="1">
       <c r="C191" s="1"/>
     </row>
-    <row r="192" ht="14.25" customHeight="1">
+    <row r="192" spans="3:3" ht="14.25" customHeight="1">
       <c r="C192" s="1"/>
     </row>
-    <row r="193" ht="14.25" customHeight="1">
+    <row r="193" spans="3:3" ht="14.25" customHeight="1">
       <c r="C193" s="1"/>
     </row>
-    <row r="194" ht="14.25" customHeight="1">
+    <row r="194" spans="3:3" ht="14.25" customHeight="1">
       <c r="C194" s="1"/>
     </row>
-    <row r="195" ht="14.25" customHeight="1">
+    <row r="195" spans="3:3" ht="14.25" customHeight="1">
       <c r="C195" s="1"/>
     </row>
-    <row r="196" ht="14.25" customHeight="1">
+    <row r="196" spans="3:3" ht="14.25" customHeight="1">
       <c r="C196" s="1"/>
     </row>
-    <row r="197" ht="14.25" customHeight="1">
+    <row r="197" spans="3:3" ht="14.25" customHeight="1">
       <c r="C197" s="1"/>
     </row>
-    <row r="198" ht="14.25" customHeight="1">
+    <row r="198" spans="3:3" ht="14.25" customHeight="1">
       <c r="C198" s="1"/>
     </row>
-    <row r="199" ht="14.25" customHeight="1">
+    <row r="199" spans="3:3" ht="14.25" customHeight="1">
       <c r="C199" s="1"/>
     </row>
-    <row r="200" ht="14.25" customHeight="1">
+    <row r="200" spans="3:3" ht="14.25" customHeight="1">
       <c r="C200" s="1"/>
     </row>
-    <row r="201" ht="14.25" customHeight="1">
+    <row r="201" spans="3:3" ht="14.25" customHeight="1">
       <c r="C201" s="1"/>
     </row>
-    <row r="202" ht="14.25" customHeight="1">
+    <row r="202" spans="3:3" ht="14.25" customHeight="1">
       <c r="C202" s="1"/>
     </row>
-    <row r="203" ht="14.25" customHeight="1">
+    <row r="203" spans="3:3" ht="14.25" customHeight="1">
       <c r="C203" s="1"/>
     </row>
-    <row r="204" ht="14.25" customHeight="1">
+    <row r="204" spans="3:3" ht="14.25" customHeight="1">
       <c r="C204" s="1"/>
     </row>
-    <row r="205" ht="14.25" customHeight="1">
+    <row r="205" spans="3:3" ht="14.25" customHeight="1">
       <c r="C205" s="1"/>
     </row>
-    <row r="206" ht="14.25" customHeight="1">
+    <row r="206" spans="3:3" ht="14.25" customHeight="1">
       <c r="C206" s="1"/>
     </row>
-    <row r="207" ht="14.25" customHeight="1">
+    <row r="207" spans="3:3" ht="14.25" customHeight="1">
       <c r="C207" s="1"/>
     </row>
-    <row r="208" ht="14.25" customHeight="1">
+    <row r="208" spans="3:3" ht="14.25" customHeight="1">
       <c r="C208" s="1"/>
     </row>
-    <row r="209" ht="14.25" customHeight="1">
+    <row r="209" spans="3:3" ht="14.25" customHeight="1">
       <c r="C209" s="1"/>
     </row>
-    <row r="210" ht="14.25" customHeight="1">
+    <row r="210" spans="3:3" ht="14.25" customHeight="1">
       <c r="C210" s="1"/>
     </row>
-    <row r="211" ht="14.25" customHeight="1">
+    <row r="211" spans="3:3" ht="14.25" customHeight="1">
       <c r="C211" s="1"/>
     </row>
-    <row r="212" ht="14.25" customHeight="1">
+    <row r="212" spans="3:3" ht="14.25" customHeight="1">
       <c r="C212" s="1"/>
     </row>
-    <row r="213" ht="14.25" customHeight="1">
+    <row r="213" spans="3:3" ht="14.25" customHeight="1">
       <c r="C213" s="1"/>
     </row>
-    <row r="214" ht="14.25" customHeight="1">
+    <row r="214" spans="3:3" ht="14.25" customHeight="1">
       <c r="C214" s="1"/>
     </row>
-    <row r="215" ht="14.25" customHeight="1">
+    <row r="215" spans="3:3" ht="14.25" customHeight="1">
       <c r="C215" s="1"/>
     </row>
-    <row r="216" ht="14.25" customHeight="1">
+    <row r="216" spans="3:3" ht="14.25" customHeight="1">
       <c r="C216" s="1"/>
     </row>
-    <row r="217" ht="14.25" customHeight="1">
+    <row r="217" spans="3:3" ht="14.25" customHeight="1">
       <c r="C217" s="1"/>
     </row>
-    <row r="218" ht="14.25" customHeight="1">
+    <row r="218" spans="3:3" ht="14.25" customHeight="1">
       <c r="C218" s="1"/>
     </row>
-    <row r="219" ht="14.25" customHeight="1">
+    <row r="219" spans="3:3" ht="14.25" customHeight="1">
       <c r="C219" s="1"/>
     </row>
-    <row r="220" ht="14.25" customHeight="1">
+    <row r="220" spans="3:3" ht="14.25" customHeight="1">
       <c r="C220" s="1"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="221" spans="3:3" ht="15.75" customHeight="1"/>
+    <row r="222" spans="3:3" ht="15.75" customHeight="1"/>
+    <row r="223" spans="3:3" ht="15.75" customHeight="1"/>
+    <row r="224" spans="3:3" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -3879,17 +4948,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="C3:K4"/>
-    <mergeCell ref="E5:K5"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
@@ -3900,486 +4958,513 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="G7:G8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="C3:K4"/>
+    <mergeCell ref="E5:K5"/>
+    <mergeCell ref="F6:K6"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins bottom="0.7480314960629921" footer="0.0" header="0.0" left="0.47" right="0.7086614173228347" top="0.7480314960629921"/>
+  <pageMargins left="0.47" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="56" orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;LElaborado por: Ing Jenny A Ruiz R, Mónica  Gómez Docentes TC del Departamento de Ciencias de la  Computación IREB PROYECTO DE CHECK LIST  (CASO DE ESTUDIO ACADÉMICO)&amp;C&amp;P de &amp;R&amp;D</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.71"/>
-    <col customWidth="1" min="2" max="2" width="34.57"/>
-    <col customWidth="1" min="3" max="3" width="16.14"/>
-    <col customWidth="1" min="4" max="24" width="10.71"/>
+    <col min="1" max="1" width="10.7265625" customWidth="1"/>
+    <col min="2" max="2" width="34.54296875" customWidth="1"/>
+    <col min="3" max="3" width="16.08984375" customWidth="1"/>
+    <col min="4" max="24" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="51.0" customHeight="1">
-      <c r="A1" s="30"/>
-      <c r="B1" s="31" t="s">
+    <row r="1" spans="1:26" ht="51" customHeight="1">
+      <c r="A1" s="13"/>
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="B2" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="34">
-        <v>45946.0</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="B3" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="B4" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1"/>
-    <row r="6" ht="21.75" customHeight="1">
-      <c r="A6" s="36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" ht="15.0" customHeight="1">
-      <c r="A7" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="40">
-        <v>1.0</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="42" t="s">
+      <c r="D1" s="42"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+    </row>
+    <row r="2" spans="1:26" ht="18.5">
+      <c r="B2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="43"/>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="40">
-        <v>2.0</v>
-      </c>
-      <c r="B9" s="41" t="s">
+      <c r="C2" s="56">
+        <v>45946</v>
+      </c>
+      <c r="D2" s="42"/>
+    </row>
+    <row r="3" spans="1:26" ht="18.5">
+      <c r="B3" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C3" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="43"/>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="40">
-        <v>3.0</v>
-      </c>
-      <c r="B10" s="41" t="s">
+      <c r="D3" s="42"/>
+    </row>
+    <row r="4" spans="1:26" ht="18.5">
+      <c r="B4" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="40">
-        <v>4.0</v>
-      </c>
-      <c r="B11" s="41" t="s">
+      <c r="C4" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="42"/>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="43"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="40">
-        <v>5.0</v>
-      </c>
-      <c r="B12" s="41" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+    </row>
+    <row r="7" spans="1:26" ht="15" customHeight="1">
+      <c r="A7" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="40">
-        <v>6.0</v>
-      </c>
-      <c r="B13" s="41" t="s">
+      <c r="B7" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="43"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="40">
-        <v>7.0</v>
-      </c>
-      <c r="B14" s="41" t="s">
+      <c r="C7" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="43"/>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="40">
-        <v>8.0</v>
-      </c>
-      <c r="B15" s="41" t="s">
+      <c r="D7" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="43"/>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="46">
-        <v>9.0</v>
-      </c>
-      <c r="B16" s="47" t="s">
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" s="19">
+        <v>1</v>
+      </c>
+      <c r="B8" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="49" t="s">
+      <c r="C8" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="50">
-        <f>COUNTA('MODELO LISTA DE COMPROBACION - '!$C$8:$C$16)</f>
+      <c r="D8" s="22"/>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" s="19">
+        <v>2</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="22"/>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" s="19">
+        <v>3</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="22"/>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" s="19">
+        <v>4</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="22"/>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" s="19">
+        <v>5</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" s="19">
         <v>6</v>
       </c>
-      <c r="D17" s="50">
-        <f>COUNTA('MODELO LISTA DE COMPROBACION - '!$D$8:$D$16)</f>
+      <c r="B13" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="22"/>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" s="19">
+        <v>7</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" s="19">
+        <v>8</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="22"/>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" s="23">
+        <v>9</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A17" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="42"/>
+      <c r="C17" s="27">
+        <f>COUNTA('MODELO DE LISTA DE COMPROBACION'!$C$8:$C$16)</f>
+        <v>7</v>
+      </c>
+      <c r="D17" s="27">
+        <f>COUNTA('MODELO DE LISTA DE COMPROBACION'!$D$8:$D$16)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A18" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="42"/>
+      <c r="C18" s="28">
+        <f t="shared" ref="C18:D18" si="0">C17/9</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="D18" s="28">
+        <f t="shared" si="0"/>
+        <v>0.22222222222222221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="27"/>
+    </row>
+    <row r="20" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A20" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+    </row>
+    <row r="21" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A21" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A22" s="19">
+        <v>1</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="22"/>
+    </row>
+    <row r="23" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A23" s="19">
+        <v>2</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="22"/>
+    </row>
+    <row r="24" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A24" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="51">
-        <f t="shared" ref="C18:D18" si="1">C17/9</f>
-        <v>0.6666666667</v>
-      </c>
-      <c r="D18" s="51">
+      <c r="B24" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="22"/>
+    </row>
+    <row r="25" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A25" s="19">
+        <v>4</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="22"/>
+    </row>
+    <row r="26" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A26" s="23">
+        <v>5</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="33"/>
+    </row>
+    <row r="27" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A27" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="42"/>
+      <c r="C27" s="27">
+        <f>COUNTA('MODELO DE LISTA DE COMPROBACION'!$C$22:$C$26)</f>
+        <v>5</v>
+      </c>
+      <c r="D27" s="27">
+        <f>COUNTA('MODELO DE LISTA DE COMPROBACION'!$D$22:$D$26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A28" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="42"/>
+      <c r="C28" s="28">
+        <f t="shared" ref="C28:D28" si="1">C27/5</f>
+        <v>1</v>
+      </c>
+      <c r="D28" s="28">
         <f t="shared" si="1"/>
-        <v>0.3333333333</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="49"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="50"/>
-    </row>
-    <row r="20" ht="21.0" customHeight="1">
-      <c r="A20" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="57" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="40">
-        <v>1.0</v>
-      </c>
-      <c r="B22" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="43"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="40">
-        <v>2.0</v>
-      </c>
-      <c r="B23" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="43"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="40">
-        <v>3.0</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="43"/>
-    </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="40">
-        <v>4.0</v>
-      </c>
-      <c r="B25" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="43"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="46">
-        <v>5.0</v>
-      </c>
-      <c r="B26" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="59"/>
-    </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="27"/>
+    </row>
+    <row r="30" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A30" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+    </row>
+    <row r="31" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A31" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A32" s="19">
+        <v>1</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="50">
-        <f>COUNTA('MODELO LISTA DE COMPROBACION - '!$C$22:$C$26)</f>
-        <v>5</v>
-      </c>
-      <c r="D27" s="50">
-        <f>COUNTA('MODELO LISTA DE COMPROBACION - '!$D$22:$D$26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="51">
-        <f t="shared" ref="C28:D28" si="2">C27/5</f>
+    </row>
+    <row r="33" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A33" s="19">
+        <v>2</v>
+      </c>
+      <c r="B33" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A34" s="23">
+        <v>3</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="25"/>
+    </row>
+    <row r="35" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A35" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="42"/>
+      <c r="C35" s="8">
+        <f>COUNTA('MODELO DE LISTA DE COMPROBACION'!$C$32:$C$34)</f>
         <v>1</v>
       </c>
-      <c r="D28" s="51">
+      <c r="D35" s="8">
+        <f>COUNTA('MODELO DE LISTA DE COMPROBACION'!$D$32:$D$34)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A36" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="42"/>
+      <c r="C36" s="28">
+        <f t="shared" ref="C36:D36" si="2">C35/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D36" s="28">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="49"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="50"/>
-    </row>
-    <row r="30" ht="20.25" customHeight="1">
-      <c r="A30" s="36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="57" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="40">
-        <v>1.0</v>
-      </c>
-      <c r="B32" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="58"/>
-    </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="40">
-        <v>2.0</v>
-      </c>
-      <c r="B33" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="58"/>
-    </row>
-    <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="46">
-        <v>3.0</v>
-      </c>
-      <c r="B34" s="47" t="s">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="38" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="39" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="40" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A40" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+    </row>
+    <row r="41" spans="1:4" ht="30" customHeight="1">
+      <c r="B41" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="27">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="30" customHeight="1">
+      <c r="B42" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="58"/>
-    </row>
-    <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="21">
-        <f>COUNTA('MODELO LISTA DE COMPROBACION - '!$C$32:$C$34)</f>
-        <v>3</v>
-      </c>
-      <c r="D35" s="21">
-        <f>COUNTA('MODELO LISTA DE COMPROBACION - '!$D$32:$D$34)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="51">
-        <f t="shared" ref="C36:D36" si="3">C35/3</f>
-        <v>1</v>
-      </c>
-      <c r="D36" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="60" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" ht="30.0" customHeight="1">
-      <c r="B41" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="61">
-        <v>67.0</v>
-      </c>
-    </row>
-    <row r="42" ht="30.0" customHeight="1">
-      <c r="B42" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="50">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="43" ht="30.0" customHeight="1">
-      <c r="B43" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="50">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="44" ht="14.25" customHeight="1">
-      <c r="C44" s="50"/>
-    </row>
-    <row r="45" ht="14.25" customHeight="1">
-      <c r="C45" s="50"/>
-    </row>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
+      <c r="C42" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="30" customHeight="1">
+      <c r="B43" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="27">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="14.25" customHeight="1">
+      <c r="C44" s="27"/>
+    </row>
+    <row r="45" spans="1:4" ht="14.25" customHeight="1">
+      <c r="C45" s="27"/>
+    </row>
+    <row r="46" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:4" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -5334,541 +6419,550 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A40:C40"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A20:D20"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A20:D20"/>
   </mergeCells>
   <conditionalFormatting sqref="A32:D34">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH(("X"),(A32))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:D16 C22:C26 C32:D34">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH(("X"),(C8))))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8:D16 C22:C26 C32:D34">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="21" priority="4" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH(("X"),(C8))))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8:D16 C22:C26 C32:D34">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="X">
-      <formula>NOT(ISERROR(SEARCH(("X"),(C8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8:D16 C22:C26 C32:D34">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH(("X"),(C8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:D26">
-    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="19" priority="6" operator="containsText" text="X">
+      <formula>NOT(ISERROR(SEARCH(("X"),(C22))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH(("X"),(C22))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22:D26">
-    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="X">
-      <formula>NOT(ISERROR(SEARCH(("X"),(C22))))</formula>
+  <conditionalFormatting sqref="C32:D34 C8:D16 C22:C26">
+    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="X">
+      <formula>NOT(ISERROR(SEARCH(("X"),(C8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:D34">
-    <cfRule type="containsText" dxfId="1" priority="8" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH(("X"),(C32))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="3">
-    <tablePart r:id="rId7"/>
-    <tablePart r:id="rId8"/>
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.71"/>
-    <col customWidth="1" min="2" max="2" width="34.57"/>
-    <col customWidth="1" min="3" max="3" width="16.14"/>
-    <col customWidth="1" min="4" max="24" width="10.71"/>
+    <col min="1" max="1" width="10.7265625" customWidth="1"/>
+    <col min="2" max="2" width="34.54296875" customWidth="1"/>
+    <col min="3" max="3" width="16.08984375" customWidth="1"/>
+    <col min="4" max="24" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="51.0" customHeight="1">
-      <c r="A1" s="30"/>
-      <c r="B1" s="31" t="s">
+    <row r="1" spans="1:26" ht="51" customHeight="1">
+      <c r="A1" s="13"/>
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="B2" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="34">
-        <v>45946.0</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="B3" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="B4" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="35" t="s">
+      <c r="D1" s="42"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+    </row>
+    <row r="2" spans="1:26" ht="23.25" customHeight="1">
+      <c r="B2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="56">
+        <v>45946</v>
+      </c>
+      <c r="D2" s="42"/>
+    </row>
+    <row r="3" spans="1:26" ht="18.5">
+      <c r="B3" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="42"/>
+    </row>
+    <row r="4" spans="1:26" ht="43.5" customHeight="1">
+      <c r="B4" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="57" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1"/>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" ht="15.0" customHeight="1">
-      <c r="A7" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="40">
-        <v>1.0</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="43"/>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="40">
-        <v>2.0</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="43"/>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="40">
-        <v>3.0</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="43"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="40">
-        <v>4.0</v>
-      </c>
-      <c r="B11" s="41" t="s">
+      <c r="D4" s="42"/>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="18.75" customHeight="1">
+      <c r="A6" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="43"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="40">
-        <v>5.0</v>
-      </c>
-      <c r="B12" s="41" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+    </row>
+    <row r="7" spans="1:26" ht="15" customHeight="1">
+      <c r="A7" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="43"/>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="40">
-        <v>6.0</v>
-      </c>
-      <c r="B13" s="41" t="s">
+      <c r="B7" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="43"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="40">
-        <v>7.0</v>
-      </c>
-      <c r="B14" s="41" t="s">
+      <c r="C7" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="40">
-        <v>8.0</v>
-      </c>
-      <c r="B15" s="41" t="s">
+      <c r="D7" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="43"/>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="46">
-        <v>9.0</v>
-      </c>
-      <c r="B16" s="47" t="s">
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" s="19">
+        <v>1</v>
+      </c>
+      <c r="B8" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="49" t="s">
+      <c r="C8" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="50">
+      <c r="D8" s="22"/>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" s="19">
+        <v>2</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="22"/>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" s="19">
+        <v>3</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="22"/>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" s="19">
+        <v>4</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="22"/>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" s="19">
+        <v>5</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" s="19">
+        <v>6</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="22"/>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" s="19">
+        <v>7</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="21"/>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" s="19">
+        <v>8</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="22"/>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" s="23">
+        <v>9</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A17" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="42"/>
+      <c r="C17" s="27">
         <f>COUNTA('MODELO LISTA DE COMPROBACION'!$C$8:$C$16)</f>
         <v>7</v>
       </c>
-      <c r="D17" s="50">
+      <c r="D17" s="27">
         <f>COUNTA('MODELO LISTA DE COMPROBACION'!$D$8:$D$16)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="51">
-        <f t="shared" ref="C18:D18" si="1">C17/9</f>
-        <v>0.7777777778</v>
-      </c>
-      <c r="D18" s="51">
-        <f t="shared" si="1"/>
-        <v>0.2222222222</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="49"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="50"/>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="57" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="40">
-        <v>1.0</v>
-      </c>
-      <c r="B22" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="43"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="40">
-        <v>2.0</v>
-      </c>
-      <c r="B23" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="43"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="40">
-        <v>3.0</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="62"/>
-    </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="40">
-        <v>4.0</v>
-      </c>
-      <c r="B25" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="43"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="46">
-        <v>5.0</v>
-      </c>
-      <c r="B26" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="59"/>
-    </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="49" t="s">
+    <row r="18" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A18" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="42"/>
+      <c r="C18" s="28">
+        <f t="shared" ref="C18:D18" si="0">C17/9</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="D18" s="28">
+        <f t="shared" si="0"/>
+        <v>0.22222222222222221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="27"/>
+    </row>
+    <row r="20" spans="1:4" ht="24" customHeight="1">
+      <c r="A20" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+    </row>
+    <row r="21" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A21" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A22" s="19">
+        <v>1</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="50">
+      <c r="D22" s="22"/>
+    </row>
+    <row r="23" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A23" s="19">
+        <v>2</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="22"/>
+    </row>
+    <row r="24" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A24" s="19">
+        <v>3</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="34"/>
+    </row>
+    <row r="25" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A25" s="19">
+        <v>4</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="22"/>
+    </row>
+    <row r="26" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A26" s="23">
+        <v>5</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="33"/>
+    </row>
+    <row r="27" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A27" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="42"/>
+      <c r="C27" s="27">
         <f>COUNTA('MODELO LISTA DE COMPROBACION'!$C$22:$C$26)</f>
         <v>5</v>
       </c>
-      <c r="D27" s="50">
+      <c r="D27" s="27">
         <f>COUNTA('MODELO LISTA DE COMPROBACION'!$D$22:$D$26)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="51">
-        <f t="shared" ref="C28:D28" si="2">C27/5</f>
+    <row r="28" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A28" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="42"/>
+      <c r="C28" s="28">
+        <f t="shared" ref="C28:D28" si="1">C27/5</f>
         <v>1</v>
       </c>
-      <c r="D28" s="51">
+      <c r="D28" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="27"/>
+    </row>
+    <row r="30" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A30" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+    </row>
+    <row r="31" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A31" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A32" s="19">
+        <v>1</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="25"/>
+    </row>
+    <row r="33" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A33" s="19">
+        <v>2</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="25"/>
+    </row>
+    <row r="34" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A34" s="23">
+        <v>3</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="25"/>
+    </row>
+    <row r="35" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A35" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="42"/>
+      <c r="C35" s="8">
+        <f>COUNTA('MODELO LISTA DE COMPROBACION'!$C$32:$C$34)</f>
+        <v>3</v>
+      </c>
+      <c r="D35" s="8">
+        <f>COUNTA('MODELO LISTA DE COMPROBACION'!$D$32:$D$34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A36" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="42"/>
+      <c r="C36" s="28">
+        <f t="shared" ref="C36:D36" si="2">C35/3</f>
+        <v>1</v>
+      </c>
+      <c r="D36" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="49"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="50"/>
-    </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="57" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="40">
-        <v>1.0</v>
-      </c>
-      <c r="B32" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="58" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="40">
-        <v>2.0</v>
-      </c>
-      <c r="B33" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="46">
-        <v>3.0</v>
-      </c>
-      <c r="B34" s="47" t="s">
+    <row r="37" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="38" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="39" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="40" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A40" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+    </row>
+    <row r="41" spans="1:4" ht="30" customHeight="1">
+      <c r="B41" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="27">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="30" customHeight="1">
+      <c r="B42" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="58"/>
-    </row>
-    <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="21">
-        <f>COUNTA('MODELO LISTA DE COMPROBACION'!$C$32:$C$34)</f>
-        <v>1</v>
-      </c>
-      <c r="D35" s="21">
-        <f>COUNTA('MODELO LISTA DE COMPROBACION'!$D$32:$D$34)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="51">
-        <f t="shared" ref="C36:D36" si="3">C35/3</f>
-        <v>0.3333333333</v>
-      </c>
-      <c r="D36" s="51">
-        <f t="shared" si="3"/>
-        <v>0.6666666667</v>
-      </c>
-    </row>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="60" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" ht="30.0" customHeight="1">
-      <c r="B41" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="50">
-        <v>78.0</v>
-      </c>
-    </row>
-    <row r="42" ht="30.0" customHeight="1">
-      <c r="B42" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="50">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="43" ht="30.0" customHeight="1">
-      <c r="B43" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="50">
-        <v>33.0</v>
-      </c>
-    </row>
-    <row r="44" ht="14.25" customHeight="1">
-      <c r="C44" s="50"/>
-    </row>
-    <row r="45" ht="14.25" customHeight="1">
-      <c r="C45" s="50"/>
-    </row>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
+      <c r="C42" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="30" customHeight="1">
+      <c r="B43" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="14.25" customHeight="1">
+      <c r="C44" s="27"/>
+    </row>
+    <row r="45" spans="1:4" ht="14.25" customHeight="1">
+      <c r="C45" s="27"/>
+    </row>
+    <row r="46" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:4" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -6823,541 +7917,552 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A20:D20"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="A32:D34">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH(("X"),(A32))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8:D16 C22:C26 C33:C34 D32:D34">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="X">
+  <conditionalFormatting sqref="C8:D16 C22:C26 D32:D34 C33:C34">
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH(("X"),(C8))))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8:D16 C22:C26 C33:C34 D32:D34">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH(("X"),(C8))))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8:D16 C22:C26 C33:C34 D32:D34">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="X">
-      <formula>NOT(ISERROR(SEARCH(("X"),(C8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8:D16 C22:C26 C33:C34 D32:D34">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH(("X"),(C8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:D26">
-    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH(("X"),(C22))))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22:D26">
-    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH(("X"),(C22))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:D34">
-    <cfRule type="containsText" dxfId="1" priority="8" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH(("X"),(C32))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <conditionalFormatting sqref="D32:D34 C33:C34 C8:D16 C22:C26">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="X">
+      <formula>NOT(ISERROR(SEARCH(("X"),(C8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="3">
-    <tablePart r:id="rId7"/>
-    <tablePart r:id="rId8"/>
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.71"/>
-    <col customWidth="1" min="2" max="2" width="34.57"/>
-    <col customWidth="1" min="3" max="3" width="16.14"/>
-    <col customWidth="1" min="4" max="24" width="10.71"/>
+    <col min="1" max="1" width="10.7265625" customWidth="1"/>
+    <col min="2" max="2" width="34.54296875" customWidth="1"/>
+    <col min="3" max="3" width="16.08984375" customWidth="1"/>
+    <col min="4" max="24" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="51.0" customHeight="1">
-      <c r="A1" s="30"/>
-      <c r="B1" s="31" t="s">
+    <row r="1" spans="1:26" ht="51" customHeight="1">
+      <c r="A1" s="13"/>
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="B2" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="34">
-        <v>45946.0</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="B3" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="B4" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="35" t="s">
+      <c r="D1" s="42"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+    </row>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+      <c r="B2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="56">
+        <v>45946</v>
+      </c>
+      <c r="D2" s="42"/>
+    </row>
+    <row r="3" spans="1:26" ht="18.5">
+      <c r="B3" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="42"/>
+    </row>
+    <row r="4" spans="1:26" ht="18.5">
+      <c r="B4" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="42"/>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="21.75" customHeight="1">
+      <c r="A6" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+    </row>
+    <row r="7" spans="1:26" ht="15" customHeight="1">
+      <c r="A7" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" s="19">
+        <v>1</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="22"/>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" s="19">
+        <v>2</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="22"/>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" s="19">
+        <v>3</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" s="19">
+        <v>4</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="22"/>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" s="19">
+        <v>5</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" s="19">
+        <v>6</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="22"/>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" s="19">
+        <v>7</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="22"/>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" s="19">
+        <v>8</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="22"/>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" s="23">
+        <v>9</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A17" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="42"/>
+      <c r="C17" s="27">
+        <f>COUNTA('MODELO LISTA DE COMPROBACION - '!$C$8:$C$16)</f>
+        <v>6</v>
+      </c>
+      <c r="D17" s="27">
+        <f>COUNTA('MODELO LISTA DE COMPROBACION - '!$D$8:$D$16)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A18" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="42"/>
+      <c r="C18" s="28">
+        <f t="shared" ref="C18:D18" si="0">C17/9</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D18" s="28">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="27"/>
+    </row>
+    <row r="20" spans="1:4" ht="21" customHeight="1">
+      <c r="A20" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+    </row>
+    <row r="21" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A21" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A22" s="19">
+        <v>1</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="22"/>
+    </row>
+    <row r="23" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A23" s="19">
+        <v>2</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="22"/>
+    </row>
+    <row r="24" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A24" s="19">
+        <v>3</v>
+      </c>
+      <c r="B24" s="20" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1"/>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" ht="15.0" customHeight="1">
-      <c r="A7" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="40">
-        <v>1.0</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="43"/>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="40">
-        <v>2.0</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="43"/>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="40">
-        <v>3.0</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="43"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="40">
-        <v>4.0</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="43"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="40">
-        <v>5.0</v>
-      </c>
-      <c r="B12" s="41" t="s">
+      <c r="C24" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="22"/>
+    </row>
+    <row r="25" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A25" s="19">
+        <v>4</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="22"/>
+    </row>
+    <row r="26" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A26" s="23">
+        <v>5</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="33"/>
+    </row>
+    <row r="27" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A27" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="42"/>
+      <c r="C27" s="27">
+        <f>COUNTA('MODELO LISTA DE COMPROBACION - '!$C$22:$C$26)</f>
+        <v>5</v>
+      </c>
+      <c r="D27" s="27">
+        <f>COUNTA('MODELO LISTA DE COMPROBACION - '!$D$22:$D$26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A28" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="42"/>
+      <c r="C28" s="28">
+        <f t="shared" ref="C28:D28" si="1">C27/5</f>
+        <v>1</v>
+      </c>
+      <c r="D28" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="27"/>
+    </row>
+    <row r="30" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A30" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+    </row>
+    <row r="31" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A31" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="43"/>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="40">
-        <v>6.0</v>
-      </c>
-      <c r="B13" s="41" t="s">
+      <c r="B31" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="43"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="40">
-        <v>7.0</v>
-      </c>
-      <c r="B14" s="41" t="s">
+      <c r="C31" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="40">
-        <v>8.0</v>
-      </c>
-      <c r="B15" s="41" t="s">
+      <c r="D31" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="43"/>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="46">
-        <v>9.0</v>
-      </c>
-      <c r="B16" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="49" t="s">
+    </row>
+    <row r="32" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A32" s="19">
+        <v>1</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="50">
-        <f>COUNTA('MODELO DE LISTA DE COMPROBACION'!$C$8:$C$16)</f>
-        <v>7</v>
-      </c>
-      <c r="D17" s="50">
-        <f>COUNTA('MODELO DE LISTA DE COMPROBACION'!$D$8:$D$16)</f>
+      <c r="D32" s="25"/>
+    </row>
+    <row r="33" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A33" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="51">
-        <f t="shared" ref="C18:D18" si="1">C17/9</f>
-        <v>0.7777777778</v>
-      </c>
-      <c r="D18" s="51">
-        <f t="shared" si="1"/>
-        <v>0.2222222222</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="49"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="50"/>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="57" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="40">
-        <v>1.0</v>
-      </c>
-      <c r="B22" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="43"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="40">
-        <v>2.0</v>
-      </c>
-      <c r="B23" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="43"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="40">
-        <v>3.0</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="43"/>
-    </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="40">
-        <v>4.0</v>
-      </c>
-      <c r="B25" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="43"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="46">
-        <v>5.0</v>
-      </c>
-      <c r="B26" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="59"/>
-    </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="49" t="s">
+      <c r="B33" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="50">
-        <f>COUNTA('MODELO DE LISTA DE COMPROBACION'!$C$22:$C$26)</f>
-        <v>5</v>
-      </c>
-      <c r="D27" s="50">
-        <f>COUNTA('MODELO DE LISTA DE COMPROBACION'!$D$22:$D$26)</f>
+      <c r="D33" s="25"/>
+    </row>
+    <row r="34" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A34" s="23">
+        <v>3</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="25"/>
+    </row>
+    <row r="35" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A35" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="42"/>
+      <c r="C35" s="8">
+        <f>COUNTA('MODELO LISTA DE COMPROBACION - '!$C$32:$C$34)</f>
+        <v>3</v>
+      </c>
+      <c r="D35" s="8">
+        <f>COUNTA('MODELO LISTA DE COMPROBACION - '!$D$32:$D$34)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="51">
-        <f t="shared" ref="C28:D28" si="2">C27/5</f>
+    <row r="36" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A36" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="42"/>
+      <c r="C36" s="28">
+        <f t="shared" ref="C36:D36" si="2">C35/3</f>
         <v>1</v>
       </c>
-      <c r="D28" s="51">
+      <c r="D36" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="49"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="50"/>
-    </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="57" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="40">
-        <v>1.0</v>
-      </c>
-      <c r="B32" s="41" t="s">
+    <row r="37" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="38" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="39" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="40" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A40" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+    </row>
+    <row r="41" spans="1:4" ht="30" customHeight="1">
+      <c r="B41" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="27">
         <v>67</v>
       </c>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="40">
-        <v>2.0</v>
-      </c>
-      <c r="B33" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="46">
-        <v>3.0</v>
-      </c>
-      <c r="B34" s="47" t="s">
+    </row>
+    <row r="42" spans="1:4" ht="30" customHeight="1">
+      <c r="B42" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="58"/>
-    </row>
-    <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="21">
-        <f>COUNTA('MODELO DE LISTA DE COMPROBACION'!$C$32:$C$34)</f>
-        <v>1</v>
-      </c>
-      <c r="D35" s="21">
-        <f>COUNTA('MODELO DE LISTA DE COMPROBACION'!$D$32:$D$34)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="51">
-        <f t="shared" ref="C36:D36" si="3">C35/3</f>
-        <v>0.3333333333</v>
-      </c>
-      <c r="D36" s="51">
-        <f t="shared" si="3"/>
-        <v>0.6666666667</v>
-      </c>
-    </row>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="60" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" ht="30.0" customHeight="1">
-      <c r="B41" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="50">
-        <v>78.0</v>
-      </c>
-    </row>
-    <row r="42" ht="30.0" customHeight="1">
-      <c r="B42" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="50">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="43" ht="30.0" customHeight="1">
-      <c r="B43" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="50">
-        <v>33.0</v>
-      </c>
-    </row>
-    <row r="44" ht="14.25" customHeight="1">
-      <c r="C44" s="50"/>
-    </row>
-    <row r="45" ht="14.25" customHeight="1">
-      <c r="C45" s="50"/>
-    </row>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
+      <c r="C42" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="30" customHeight="1">
+      <c r="B43" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="14.25" customHeight="1">
+      <c r="C44" s="27"/>
+    </row>
+    <row r="45" spans="1:4" ht="14.25" customHeight="1">
+      <c r="C45" s="27"/>
+    </row>
+    <row r="46" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:4" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -8312,126 +9417,122 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A20:D20"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="A32:D34">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH(("X"),(A32))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:D16 C22:C26 C32:D34">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH(("X"),(C8))))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8:D16 C22:C26 C32:D34">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH(("X"),(C8))))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8:D16 C22:C26 C32:D34">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="X">
-      <formula>NOT(ISERROR(SEARCH(("X"),(C8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8:D16 C22:C26 C32:D34">
     <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH(("X"),(C8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:D26">
-    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH(("X"),(C22))))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22:D26">
     <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH(("X"),(C22))))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C32:D34 C8:D16 C22:C26">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="X">
+      <formula>NOT(ISERROR(SEARCH(("X"),(C8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C32:D34">
-    <cfRule type="containsText" dxfId="1" priority="8" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH(("X"),(C32))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="3">
-    <tablePart r:id="rId7"/>
-    <tablePart r:id="rId8"/>
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B999"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="53.14"/>
-    <col customWidth="1" min="2" max="2" width="57.29"/>
-    <col customWidth="1" min="3" max="6" width="10.71"/>
+    <col min="1" max="1" width="54.08984375" customWidth="1"/>
+    <col min="2" max="2" width="57.26953125" customWidth="1"/>
+    <col min="3" max="6" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="63" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="64" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1"/>
-    <row r="5" ht="14.25" customHeight="1"/>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1"/>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1"/>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="1" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A1" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="58">
+      <c r="A2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="43.5">
+      <c r="A3" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.5">
+      <c r="A4" s="60"/>
+      <c r="B4" s="61"/>
+    </row>
+    <row r="5" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -8632,9 +9733,9 @@
     <row r="214" ht="14.25" customHeight="1"/>
     <row r="215" ht="14.25" customHeight="1"/>
     <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="217" ht="14.25" customHeight="1"/>
+    <row r="218" ht="14.25" customHeight="1"/>
+    <row r="219" ht="14.25" customHeight="1"/>
     <row r="220" ht="15.75" customHeight="1"/>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
@@ -9412,72 +10513,73 @@
     <row r="994" ht="15.75" customHeight="1"/>
     <row r="995" ht="15.75" customHeight="1"/>
     <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="53.57"/>
-    <col customWidth="1" min="2" max="2" width="57.29"/>
-    <col customWidth="1" min="3" max="6" width="10.71"/>
+    <col min="1" max="1" width="53.54296875" customWidth="1"/>
+    <col min="2" max="2" width="57.26953125" customWidth="1"/>
+    <col min="3" max="6" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="63" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="67"/>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="68"/>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="68"/>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="70"/>
-    </row>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1"/>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1"/>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="1" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A1" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="58">
+      <c r="A2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A3" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.5">
+      <c r="A4" s="20"/>
+      <c r="B4" s="37"/>
+    </row>
+    <row r="5" spans="1:2" ht="14.5">
+      <c r="A5" s="36"/>
+      <c r="B5" s="37"/>
+    </row>
+    <row r="6" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -10463,71 +11565,63 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:B996"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="54.14"/>
-    <col customWidth="1" min="2" max="2" width="57.29"/>
-    <col customWidth="1" min="3" max="6" width="10.71"/>
+    <col min="1" max="1" width="53.08984375" customWidth="1"/>
+    <col min="2" max="2" width="57.26953125" customWidth="1"/>
+    <col min="3" max="6" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="63" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="67"/>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="68"/>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="71" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="70"/>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="70"/>
-    </row>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1"/>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1"/>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="1" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A1" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="58">
+      <c r="A2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="43.5">
+      <c r="A3" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -10728,10 +11822,10 @@
     <row r="214" ht="14.25" customHeight="1"/>
     <row r="215" ht="14.25" customHeight="1"/>
     <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
     <row r="223" ht="15.75" customHeight="1"/>
@@ -11508,14 +12602,8 @@
     <row r="994" ht="15.75" customHeight="1"/>
     <row r="995" ht="15.75" customHeight="1"/>
     <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>